--- a/src/GPU_Tests/new_tests/results/results.xlsx
+++ b/src/GPU_Tests/new_tests/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t xml:space="preserve">Configuration: dataset with 80000 tuples, -s 1 -b 10000 -n 1</t>
   </si>
@@ -72,6 +72,21 @@
   <si>
     <t xml:space="preserve">Sources (-s)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Stateless versions, for reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map (Stateless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter (Stateless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration: dataset with 80000 tuples, -s 1 -k 500 -n 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch length (-b)</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +140,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -140,7 +161,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +178,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -194,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +239,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +277,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -287,7 +322,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -330,7 +365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$6</c:f>
+              <c:f>Foglio1!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,7 +504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$6</c:f>
+              <c:f>Foglio1!$C$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -608,7 +643,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$6</c:f>
+              <c:f>Foglio1!$D$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,11 +785,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76322781"/>
-        <c:axId val="65462974"/>
+        <c:axId val="32101458"/>
+        <c:axId val="79768420"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76322781"/>
+        <c:axId val="32101458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +817,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65462974"/>
+        <c:crossAx val="79768420"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65462974"/>
+        <c:axId val="79768420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +890,1295 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76322781"/>
+        <c:crossAx val="32101458"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Map - Nano -s 1 -b 10000 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$54:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$55:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3883650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6868576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7210229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6570657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6686321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5767242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5464904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5238840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5059971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$54:$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (one per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$55:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3881602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6840008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7012945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6624486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6551707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6309201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5802040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5349854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5225565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Ignoring warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$55:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>509678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3524362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6887566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7123047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6573388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6663278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5962506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5698789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5254879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5010527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="59537691"/>
+        <c:axId val="25889501"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59537691"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Keys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25889501"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25889501"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59537691"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Filter - Pianosa -s1 -b 10000 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$28:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>434587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3948169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10663428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11608420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11332232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11391527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10921719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10584890</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10128853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9950162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$28:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (one per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$29:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>433210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3945022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10634018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11678178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11495144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11400862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10952422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10657727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10187295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9982726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$28:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (ignoring warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$29:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>442000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2216347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9164936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11657683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11498824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11497656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11061228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10656949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10283779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10077345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="67452287"/>
+        <c:axId val="11644527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67452287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Keys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11644527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11644527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67452287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -923,7 +2246,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Nano -s 1 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 14 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -946,7 +2269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$54</c:f>
+              <c:f>Foglio1!$B$111:$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1003,7 +2326,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1041,39 +2364,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$55:$B$64</c:f>
+              <c:f>Foglio1!$B$112:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512541</c:v>
+                  <c:v>439205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3883650</c:v>
+                  <c:v>4102767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6868576</c:v>
+                  <c:v>32218835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7210229</c:v>
+                  <c:v>96505736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6570657</c:v>
+                  <c:v>116766776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6686321</c:v>
+                  <c:v>118573541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5767242</c:v>
+                  <c:v>111369022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5464904</c:v>
+                  <c:v>87498198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5238840</c:v>
+                  <c:v>58684476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5059971</c:v>
+                  <c:v>49217013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +2408,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$54</c:f>
+              <c:f>Foglio1!$C$111:$C$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,7 +2465,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1180,39 +2503,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$55:$C$64</c:f>
+              <c:f>Foglio1!$C$112:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512652</c:v>
+                  <c:v>439118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3881602</c:v>
+                  <c:v>4101274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6840008</c:v>
+                  <c:v>32279556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7012945</c:v>
+                  <c:v>96857804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6624486</c:v>
+                  <c:v>118219761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6551707</c:v>
+                  <c:v>104252292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6309201</c:v>
+                  <c:v>105671220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5802040</c:v>
+                  <c:v>83724523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5349854</c:v>
+                  <c:v>58377160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5225565</c:v>
+                  <c:v>50274765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,7 +2547,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$54</c:f>
+              <c:f>Foglio1!$D$111:$D$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1281,7 +2604,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1319,39 +2642,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$55:$D$64</c:f>
+              <c:f>Foglio1!$D$112:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>509678</c:v>
+                  <c:v>447496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3524362</c:v>
+                  <c:v>2343902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6887566</c:v>
+                  <c:v>10196813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7123047</c:v>
+                  <c:v>41529167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6573388</c:v>
+                  <c:v>68060297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6663278</c:v>
+                  <c:v>70281636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5962506</c:v>
+                  <c:v>102961495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5698789</c:v>
+                  <c:v>92174803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5254879</c:v>
+                  <c:v>58484597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5010527</c:v>
+                  <c:v>50335212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,11 +2689,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90650541"/>
-        <c:axId val="52908434"/>
+        <c:axId val="89540160"/>
+        <c:axId val="47234322"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90650541"/>
+        <c:axId val="89540160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +2749,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52908434"/>
+        <c:crossAx val="47234322"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +2757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52908434"/>
+        <c:axId val="47234322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +2822,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90650541"/>
+        <c:crossAx val="89540160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,7 +2890,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s1 -b 10000 -n 1</a:t>
+              <a:t>Filter - Nano -s 1 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1590,7 +2913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$28</c:f>
+              <c:f>Foglio1!$B$80:$B$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,6 +2954,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1646,7 +2970,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1684,39 +3008,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$29:$B$38</c:f>
+              <c:f>Foglio1!$B$81:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>434587</c:v>
+                  <c:v>497814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3948169</c:v>
+                  <c:v>3224045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10663428</c:v>
+                  <c:v>6282103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11608420</c:v>
+                  <c:v>6635357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11332232</c:v>
+                  <c:v>6219444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11391527</c:v>
+                  <c:v>6408101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10921719</c:v>
+                  <c:v>5537822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10584890</c:v>
+                  <c:v>5290093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10128853</c:v>
+                  <c:v>4816920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9950162</c:v>
+                  <c:v>4738970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,7 +3052,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$28</c:f>
+              <c:f>Foglio1!$C$80:$C$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1769,6 +3093,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1784,7 +3109,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1822,39 +3147,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$29:$C$38</c:f>
+              <c:f>Foglio1!$C$81:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433210</c:v>
+                  <c:v>497708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3945022</c:v>
+                  <c:v>3196580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10634018</c:v>
+                  <c:v>6056530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11678178</c:v>
+                  <c:v>6203969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11495144</c:v>
+                  <c:v>6080916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11400862</c:v>
+                  <c:v>6022828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10952422</c:v>
+                  <c:v>5806916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10657727</c:v>
+                  <c:v>5452442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10187295</c:v>
+                  <c:v>5162902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9982726</c:v>
+                  <c:v>4980838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,7 +3191,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$28</c:f>
+              <c:f>Foglio1!$D$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,6 +3232,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1922,7 +3248,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1960,39 +3286,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$29:$D$38</c:f>
+              <c:f>Foglio1!$D$81:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>442000</c:v>
+                  <c:v>488703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2216347</c:v>
+                  <c:v>2990850</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9164936</c:v>
+                  <c:v>6722932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11657683</c:v>
+                  <c:v>6590552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11498824</c:v>
+                  <c:v>5935298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11497656</c:v>
+                  <c:v>6412581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11061228</c:v>
+                  <c:v>5687103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10656949</c:v>
+                  <c:v>5172473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10283779</c:v>
+                  <c:v>4948705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10077345</c:v>
+                  <c:v>4624602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,11 +3333,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96125690"/>
-        <c:axId val="17272804"/>
+        <c:axId val="25151069"/>
+        <c:axId val="79982573"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96125690"/>
+        <c:axId val="25151069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +3371,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2067,7 +3393,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17272804"/>
+        <c:crossAx val="79982573"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17272804"/>
+        <c:axId val="79982573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +3444,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2140,7 +3466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96125690"/>
+        <c:crossAx val="25151069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2208,7 +3534,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 14 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -s 14 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2231,11 +3557,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$111</c:f>
+              <c:f>Foglio1!$B$138:$B$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2288,7 +3614,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2326,39 +3652,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$112:$B$121</c:f>
+              <c:f>Foglio1!$B$139:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>439205</c:v>
+                  <c:v>434629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4102767</c:v>
+                  <c:v>3944481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32218835</c:v>
+                  <c:v>26410459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96505736</c:v>
+                  <c:v>57174319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116766776</c:v>
+                  <c:v>62005952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118573541</c:v>
+                  <c:v>62027545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111369022</c:v>
+                  <c:v>58861383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87498198</c:v>
+                  <c:v>53301817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58684476</c:v>
+                  <c:v>40808692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49217013</c:v>
+                  <c:v>37273277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,11 +3696,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$111</c:f>
+              <c:f>Foglio1!$C$138:$C$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2427,7 +3753,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2465,39 +3791,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$112:$C$121</c:f>
+              <c:f>Foglio1!$C$139:$C$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>439118</c:v>
+                  <c:v>433171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4101274</c:v>
+                  <c:v>3932252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32279556</c:v>
+                  <c:v>26460357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96857804</c:v>
+                  <c:v>57252511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118219761</c:v>
+                  <c:v>61968525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104252292</c:v>
+                  <c:v>58270275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105671220</c:v>
+                  <c:v>58062697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83724523</c:v>
+                  <c:v>52288240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58377160</c:v>
+                  <c:v>39703823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50274765</c:v>
+                  <c:v>37269051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,11 +3835,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$111</c:f>
+              <c:f>Foglio1!$D$138:$D$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2566,7 +3892,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2604,39 +3930,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$112:$D$121</c:f>
+              <c:f>Foglio1!$D$139:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>447496</c:v>
+                  <c:v>441440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2343902</c:v>
+                  <c:v>2217352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10196813</c:v>
+                  <c:v>9267378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41529167</c:v>
+                  <c:v>31212733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68060297</c:v>
+                  <c:v>43910294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70281636</c:v>
+                  <c:v>44925059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102961495</c:v>
+                  <c:v>58234016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92174803</c:v>
+                  <c:v>53281313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58484597</c:v>
+                  <c:v>38627342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50335212</c:v>
+                  <c:v>37072436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,11 +3977,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38520150"/>
-        <c:axId val="49715300"/>
+        <c:axId val="16849265"/>
+        <c:axId val="32108020"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38520150"/>
+        <c:axId val="16849265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +4037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49715300"/>
+        <c:crossAx val="32108020"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +4045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49715300"/>
+        <c:axId val="32108020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +4110,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38520150"/>
+        <c:crossAx val="16849265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2852,11 +4178,19 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Nano -s 1 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.325277189485486"/>
+          <c:y val="0.0353137146029983"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2875,11 +4209,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$80</c:f>
+              <c:f>Foglio1!$B$169:$B$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2916,6 +4250,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2931,7 +4266,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2969,39 +4304,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$81:$B$90</c:f>
+              <c:f>Foglio1!$B$170:$B$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>497814</c:v>
+                  <c:v>440467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3224045</c:v>
+                  <c:v>4100397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6282103</c:v>
+                  <c:v>21333312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6635357</c:v>
+                  <c:v>23444794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6219444</c:v>
+                  <c:v>22835011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6408101</c:v>
+                  <c:v>22854687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5537822</c:v>
+                  <c:v>21740655</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5290093</c:v>
+                  <c:v>21115488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4816920</c:v>
+                  <c:v>20273211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4738970</c:v>
+                  <c:v>19850536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,11 +4348,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$80</c:f>
+              <c:f>Foglio1!$C$169:$C$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3054,6 +4389,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3069,7 +4405,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3107,39 +4443,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$81:$C$90</c:f>
+              <c:f>Foglio1!$C$170:$C$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>497708</c:v>
+                  <c:v>440833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3196580</c:v>
+                  <c:v>4094483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6056530</c:v>
+                  <c:v>21386108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6203969</c:v>
+                  <c:v>23391328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6080916</c:v>
+                  <c:v>22831370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6022828</c:v>
+                  <c:v>22812810</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5806916</c:v>
+                  <c:v>21801028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5452442</c:v>
+                  <c:v>21171082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5162902</c:v>
+                  <c:v>20272609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4980838</c:v>
+                  <c:v>19853672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +4487,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$80</c:f>
+              <c:f>Foglio1!$D$169:$D$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3192,6 +4528,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3207,7 +4544,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3245,39 +4582,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$81:$D$90</c:f>
+              <c:f>Foglio1!$D$170:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>488703</c:v>
+                  <c:v>447618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2990850</c:v>
+                  <c:v>2339971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6722932</c:v>
+                  <c:v>10211754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6590552</c:v>
+                  <c:v>23586453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5935298</c:v>
+                  <c:v>23073622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6412581</c:v>
+                  <c:v>23101988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5687103</c:v>
+                  <c:v>21952108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5172473</c:v>
+                  <c:v>21291868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4948705</c:v>
+                  <c:v>20071622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4624602</c:v>
+                  <c:v>19911172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,11 +4629,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3890251"/>
-        <c:axId val="61931442"/>
+        <c:axId val="10834761"/>
+        <c:axId val="78724200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3890251"/>
+        <c:axId val="10834761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +4667,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3352,7 +4689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61931442"/>
+        <c:crossAx val="78724200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3360,7 +4697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61931442"/>
+        <c:axId val="78724200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,7 +4740,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3425,7 +4762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3890251"/>
+        <c:crossAx val="10834761"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3493,7 +4830,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 14 -b 10000 -n 1</a:t>
+              <a:t>Map - Nano -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3516,11 +4853,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$138</c:f>
+              <c:f>Foglio1!$B$220:$B$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3557,6 +4894,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3572,7 +4910,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3610,39 +4948,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$139:$B$148</c:f>
+              <c:f>Foglio1!$B$221:$B$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>434629</c:v>
+                  <c:v>512665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3944481</c:v>
+                  <c:v>3851750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26410459</c:v>
+                  <c:v>11967731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57174319</c:v>
+                  <c:v>11729860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62005952</c:v>
+                  <c:v>10607682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62027545</c:v>
+                  <c:v>10549913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58861383</c:v>
+                  <c:v>9330526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53301817</c:v>
+                  <c:v>7508170</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40808692</c:v>
+                  <c:v>6799744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37273277</c:v>
+                  <c:v>6688794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3654,11 +4992,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$138</c:f>
+              <c:f>Foglio1!$C$220:$C$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3695,6 +5033,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3710,7 +5049,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3748,39 +5087,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$139:$C$148</c:f>
+              <c:f>Foglio1!$C$221:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433171</c:v>
+                  <c:v>512850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3932252</c:v>
+                  <c:v>3855884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26460357</c:v>
+                  <c:v>8898848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57252511</c:v>
+                  <c:v>9189934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61968525</c:v>
+                  <c:v>9279744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58270275</c:v>
+                  <c:v>9204397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58062697</c:v>
+                  <c:v>9049745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52288240</c:v>
+                  <c:v>8417801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39703823</c:v>
+                  <c:v>7572086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37269051</c:v>
+                  <c:v>7482852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,11 +5131,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$138</c:f>
+              <c:f>Foglio1!$D$220:$D$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3833,6 +5172,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3848,7 +5188,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3886,39 +5226,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$139:$D$148</c:f>
+              <c:f>Foglio1!$D$221:$D$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441440</c:v>
+                  <c:v>511162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2217352</c:v>
+                  <c:v>3540946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9267378</c:v>
+                  <c:v>11967935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31212733</c:v>
+                  <c:v>11803611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43910294</c:v>
+                  <c:v>10600181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44925059</c:v>
+                  <c:v>10457890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58234016</c:v>
+                  <c:v>9150102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53281313</c:v>
+                  <c:v>7098990</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38627342</c:v>
+                  <c:v>6950255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37072436</c:v>
+                  <c:v>6743002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3933,11 +5273,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70608862"/>
-        <c:axId val="22744618"/>
+        <c:axId val="24803773"/>
+        <c:axId val="86210889"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70608862"/>
+        <c:axId val="24803773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,7 +5311,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3993,7 +5333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22744618"/>
+        <c:crossAx val="86210889"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4001,7 +5341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22744618"/>
+        <c:axId val="86210889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,7 +5384,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4066,7 +5406,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70608862"/>
+        <c:crossAx val="24803773"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4134,19 +5474,11 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 2 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.325292944402892"/>
-          <c:y val="0.0351987563846325"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4165,11 +5497,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$169</c:f>
+              <c:f>Foglio1!$B$193:$B$193</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4222,7 +5554,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4260,39 +5592,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$170:$B$179</c:f>
+              <c:f>Foglio1!$B$194:$B$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>440467</c:v>
+                  <c:v>434510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4100397</c:v>
+                  <c:v>3962293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21333312</c:v>
+                  <c:v>21387107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23444794</c:v>
+                  <c:v>23308437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22835011</c:v>
+                  <c:v>22744756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22854687</c:v>
+                  <c:v>22688269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21740655</c:v>
+                  <c:v>21777815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21115488</c:v>
+                  <c:v>21108435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20273211</c:v>
+                  <c:v>20328142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19850536</c:v>
+                  <c:v>19912605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,11 +5636,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$169</c:f>
+              <c:f>Foglio1!$C$193:$C$193</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4361,7 +5693,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4399,39 +5731,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$170:$C$179</c:f>
+              <c:f>Foglio1!$C$194:$C$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>440833</c:v>
+                  <c:v>433261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4094483</c:v>
+                  <c:v>3946132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21386108</c:v>
+                  <c:v>21375081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23391328</c:v>
+                  <c:v>23408735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22831370</c:v>
+                  <c:v>22944601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22812810</c:v>
+                  <c:v>22978033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21801028</c:v>
+                  <c:v>21937636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21171082</c:v>
+                  <c:v>21309372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20272609</c:v>
+                  <c:v>20360588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19853672</c:v>
+                  <c:v>19951110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4443,11 +5775,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$169</c:f>
+              <c:f>Foglio1!$D$193:$D$193</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4500,7 +5832,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4538,39 +5870,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$170:$D$179</c:f>
+              <c:f>Foglio1!$D$194:$D$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>447618</c:v>
+                  <c:v>441486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2339971</c:v>
+                  <c:v>2214387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10211754</c:v>
+                  <c:v>9208511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23586453</c:v>
+                  <c:v>23159548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23073622</c:v>
+                  <c:v>22478310</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23101988</c:v>
+                  <c:v>22607832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21952108</c:v>
+                  <c:v>21546222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21291868</c:v>
+                  <c:v>20995312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20071622</c:v>
+                  <c:v>20077306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19911172</c:v>
+                  <c:v>19697269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,11 +5917,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25821721"/>
-        <c:axId val="83013644"/>
+        <c:axId val="98756413"/>
+        <c:axId val="64007844"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25821721"/>
+        <c:axId val="98756413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,7 +5977,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83013644"/>
+        <c:crossAx val="64007844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4653,7 +5985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83013644"/>
+        <c:axId val="64007844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4718,7 +6050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25821721"/>
+        <c:crossAx val="98756413"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4786,7 +6118,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Nano -s 2 -b 10000 -n 1</a:t>
+              <a:t>Filter - Nano -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4809,11 +6141,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$220</c:f>
+              <c:f>Foglio1!$B$244:$B$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4866,7 +6198,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4904,39 +6236,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$221:$B$230</c:f>
+              <c:f>Foglio1!$B$245:$B$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512665</c:v>
+                  <c:v>496081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3851750</c:v>
+                  <c:v>3235078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11967731</c:v>
+                  <c:v>8014328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11729860</c:v>
+                  <c:v>8471320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10607682</c:v>
+                  <c:v>7373002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10549913</c:v>
+                  <c:v>7052776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9330526</c:v>
+                  <c:v>6585774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7508170</c:v>
+                  <c:v>5444301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6799744</c:v>
+                  <c:v>5098484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6688794</c:v>
+                  <c:v>5033552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,11 +6280,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$220</c:f>
+              <c:f>Foglio1!$C$244:$C$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5005,7 +6337,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5043,39 +6375,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$221:$C$230</c:f>
+              <c:f>Foglio1!$C$245:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512850</c:v>
+                  <c:v>497380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3855884</c:v>
+                  <c:v>3246443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8898848</c:v>
+                  <c:v>5990859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9189934</c:v>
+                  <c:v>6013609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9279744</c:v>
+                  <c:v>6007296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9204397</c:v>
+                  <c:v>5935758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9049745</c:v>
+                  <c:v>5906369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8417801</c:v>
+                  <c:v>5724821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7572086</c:v>
+                  <c:v>5286865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7482852</c:v>
+                  <c:v>5265371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,11 +6419,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$220</c:f>
+              <c:f>Foglio1!$D$244:$D$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5144,7 +6476,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5182,39 +6514,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$221:$D$230</c:f>
+              <c:f>Foglio1!$D$245:$D$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>511162</c:v>
+                  <c:v>487410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3540946</c:v>
+                  <c:v>3029578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11967935</c:v>
+                  <c:v>8661034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11803611</c:v>
+                  <c:v>8471788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10600181</c:v>
+                  <c:v>7514817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10457890</c:v>
+                  <c:v>7494017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9150102</c:v>
+                  <c:v>6171258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7098990</c:v>
+                  <c:v>5258946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6950255</c:v>
+                  <c:v>5097443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6743002</c:v>
+                  <c:v>5047209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5229,11 +6561,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76008733"/>
-        <c:axId val="6953891"/>
+        <c:axId val="9941266"/>
+        <c:axId val="73183144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76008733"/>
+        <c:axId val="9941266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,7 +6621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6953891"/>
+        <c:crossAx val="73183144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5297,7 +6629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6953891"/>
+        <c:axId val="73183144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +6694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76008733"/>
+        <c:crossAx val="9941266"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5430,7 +6762,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5453,11 +6785,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$193</c:f>
+              <c:f>Foglio1!$B$277:$B$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5494,6 +6826,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5509,7 +6842,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5547,39 +6880,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$194:$B$203</c:f>
+              <c:f>Foglio1!$B$278:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>434510</c:v>
+                  <c:v>741347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3962293</c:v>
+                  <c:v>5733523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21387107</c:v>
+                  <c:v>8355894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23308437</c:v>
+                  <c:v>2280451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22744756</c:v>
+                  <c:v>1243358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22688269</c:v>
+                  <c:v>23007630</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21777815</c:v>
+                  <c:v>21935303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21108435</c:v>
+                  <c:v>21258589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20328142</c:v>
+                  <c:v>20294343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19912605</c:v>
+                  <c:v>19900394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5591,11 +6924,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$193</c:f>
+              <c:f>Foglio1!$C$277:$C$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5632,6 +6965,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5647,7 +6981,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5685,39 +7019,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$194:$C$203</c:f>
+              <c:f>Foglio1!$C$278:$C$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433261</c:v>
+                  <c:v>737435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3946132</c:v>
+                  <c:v>5710211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21375081</c:v>
+                  <c:v>8348379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23408735</c:v>
+                  <c:v>2283669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22944601</c:v>
+                  <c:v>1247454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22978033</c:v>
+                  <c:v>1202886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21937636</c:v>
+                  <c:v>616266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21309372</c:v>
+                  <c:v>336563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20360588</c:v>
+                  <c:v>219828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19951110</c:v>
+                  <c:v>200604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5729,11 +7063,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$193</c:f>
+              <c:f>Foglio1!$D$277:$D$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5770,6 +7104,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5785,7 +7120,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5823,39 +7158,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$194:$D$203</c:f>
+              <c:f>Foglio1!$D$278:$D$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441486</c:v>
+                  <c:v>24408160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2214387</c:v>
+                  <c:v>22649960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9208511</c:v>
+                  <c:v>21251565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23159548</c:v>
+                  <c:v>23488731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22478310</c:v>
+                  <c:v>22954533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22607832</c:v>
+                  <c:v>22941960</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21546222</c:v>
+                  <c:v>21900453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20995312</c:v>
+                  <c:v>21168537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20077306</c:v>
+                  <c:v>20133331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19697269</c:v>
+                  <c:v>19852848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,11 +7205,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61104578"/>
-        <c:axId val="76999687"/>
+        <c:axId val="67110031"/>
+        <c:axId val="29337236"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61104578"/>
+        <c:axId val="67110031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5908,7 +7243,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5930,7 +7265,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76999687"/>
+        <c:crossAx val="29337236"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5938,7 +7273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76999687"/>
+        <c:axId val="29337236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,7 +7316,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6003,7 +7338,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61104578"/>
+        <c:crossAx val="67110031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6071,7 +7406,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Nano -s 2 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6094,7 +7429,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$244</c:f>
+              <c:f>Foglio1!$B$307:$B$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6135,6 +7470,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6150,7 +7486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6188,39 +7524,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$245:$B$254</c:f>
+              <c:f>Foglio1!$B$308:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>496081</c:v>
+                  <c:v>722745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3235078</c:v>
+                  <c:v>5415486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8014328</c:v>
+                  <c:v>7822499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8471320</c:v>
+                  <c:v>2226389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7373002</c:v>
+                  <c:v>1220676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7052776</c:v>
+                  <c:v>22529923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6585774</c:v>
+                  <c:v>21316330</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5444301</c:v>
+                  <c:v>20805895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5098484</c:v>
+                  <c:v>19901219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5033552</c:v>
+                  <c:v>19616100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6232,7 +7568,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$244</c:f>
+              <c:f>Foglio1!$C$307:$C$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6273,6 +7609,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6288,7 +7625,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6326,39 +7663,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$245:$C$254</c:f>
+              <c:f>Foglio1!$C$308:$C$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>497380</c:v>
+                  <c:v>720278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3246443</c:v>
+                  <c:v>5403991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5990859</c:v>
+                  <c:v>7815017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6013609</c:v>
+                  <c:v>2234595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6007296</c:v>
+                  <c:v>1227647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5935758</c:v>
+                  <c:v>1182542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5906369</c:v>
+                  <c:v>612835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5724821</c:v>
+                  <c:v>334324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5286865</c:v>
+                  <c:v>220181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5265371</c:v>
+                  <c:v>197483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,7 +7707,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$244</c:f>
+              <c:f>Foglio1!$D$307:$D$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6411,6 +7748,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6426,7 +7764,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6464,39 +7802,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$245:$D$254</c:f>
+              <c:f>Foglio1!$D$308:$D$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>487410</c:v>
+                  <c:v>24045556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3029578</c:v>
+                  <c:v>22495596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8661034</c:v>
+                  <c:v>21765265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8471788</c:v>
+                  <c:v>23211414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7514817</c:v>
+                  <c:v>22622410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7494017</c:v>
+                  <c:v>22710719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6171258</c:v>
+                  <c:v>21649371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5258946</c:v>
+                  <c:v>20979190</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5097443</c:v>
+                  <c:v>20049781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5047209</c:v>
+                  <c:v>19727623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,11 +7849,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50130712"/>
-        <c:axId val="83973681"/>
+        <c:axId val="63045443"/>
+        <c:axId val="25347979"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50130712"/>
+        <c:axId val="63045443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6549,7 +7887,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6571,7 +7909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83973681"/>
+        <c:crossAx val="25347979"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6579,7 +7917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83973681"/>
+        <c:axId val="25347979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +7960,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6644,7 +7982,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50130712"/>
+        <c:crossAx val="63045443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6712,7 +8050,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
+              <a:t>Map - Pianosa -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6735,7 +8073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$277</c:f>
+              <c:f>Foglio1!$B$338:$B$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6792,77 +8130,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$278:$B$287</c:f>
+              <c:f>Foglio1!$B$339:$B$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>741347</c:v>
+                  <c:v>11756636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5733523</c:v>
+                  <c:v>23444794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8355894</c:v>
+                  <c:v>46774517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2280451</c:v>
+                  <c:v>70612833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1243358</c:v>
+                  <c:v>92036331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23007630</c:v>
+                  <c:v>96289310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21935303</c:v>
+                  <c:v>96528209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21258589</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20294343</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19900394</c:v>
+                  <c:v>96505736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6874,7 +8200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$277</c:f>
+              <c:f>Foglio1!$C$338:$C$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6931,77 +8257,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$278:$C$287</c:f>
+              <c:f>Foglio1!$C$339:$C$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>737435</c:v>
+                  <c:v>11672675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5710211</c:v>
+                  <c:v>23391328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8348379</c:v>
+                  <c:v>46663490</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2283669</c:v>
+                  <c:v>70403458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1247454</c:v>
+                  <c:v>92362312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1202886</c:v>
+                  <c:v>96975153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616266</c:v>
+                  <c:v>97175518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>219828</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200604</c:v>
+                  <c:v>96857804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,7 +8327,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$277</c:f>
+              <c:f>Foglio1!$D$338:$D$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7070,77 +8384,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$278:$D$287</c:f>
+              <c:f>Foglio1!$D$339:$D$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24408160</c:v>
+                  <c:v>11791517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22649960</c:v>
+                  <c:v>23586453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21251565</c:v>
+                  <c:v>41700074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23488731</c:v>
+                  <c:v>41669437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22954533</c:v>
+                  <c:v>41555796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22941960</c:v>
+                  <c:v>41476157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21900453</c:v>
+                  <c:v>41558518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21168537</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20133331</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19852848</c:v>
+                  <c:v>41529167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7155,11 +8457,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47473248"/>
-        <c:axId val="3215042"/>
+        <c:axId val="10102896"/>
+        <c:axId val="63308827"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47473248"/>
+        <c:axId val="10102896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,7 +8482,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7215,7 +8517,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3215042"/>
+        <c:crossAx val="63308827"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7223,7 +8525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3215042"/>
+        <c:axId val="63308827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7288,7 +8590,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47473248"/>
+        <c:crossAx val="10102896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7356,7 +8658,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
+              <a:t>Filter - Pianosa -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7379,7 +8681,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$307</c:f>
+              <c:f>Foglio1!$B$367:$B$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7420,6 +8722,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7435,77 +8738,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$308:$B$317</c:f>
+              <c:f>Foglio1!$B$368:$B$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>722745</c:v>
+                  <c:v>11608420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5415486</c:v>
+                  <c:v>23308437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7822499</c:v>
+                  <c:v>47002649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2226389</c:v>
+                  <c:v>56095786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1220676</c:v>
+                  <c:v>55773657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22529923</c:v>
+                  <c:v>56367794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21316330</c:v>
+                  <c:v>56689984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20805895</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19901219</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19616100</c:v>
+                  <c:v>57174319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +8808,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$307</c:f>
+              <c:f>Foglio1!$C$367:$C$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7558,6 +8849,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7573,77 +8865,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$308:$C$317</c:f>
+              <c:f>Foglio1!$C$368:$C$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>720278</c:v>
+                  <c:v>11678178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5403991</c:v>
+                  <c:v>23408735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7815017</c:v>
+                  <c:v>47298017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2234595</c:v>
+                  <c:v>56075027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1227647</c:v>
+                  <c:v>56359090</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1182542</c:v>
+                  <c:v>56576403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>612835</c:v>
+                  <c:v>56765060</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>334324</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>220181</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197483</c:v>
+                  <c:v>57252511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7655,7 +8935,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$307</c:f>
+              <c:f>Foglio1!$D$367:$D$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7696,6 +8976,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7711,77 +8992,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$308:$D$317</c:f>
+              <c:f>Foglio1!$D$368:$D$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24045556</c:v>
+                  <c:v>11657683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22495596</c:v>
+                  <c:v>23159548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21765265</c:v>
+                  <c:v>30993214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23211414</c:v>
+                  <c:v>30958285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22622410</c:v>
+                  <c:v>31018000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22710719</c:v>
+                  <c:v>31035194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21649371</c:v>
+                  <c:v>31240994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20979190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20049781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19727623</c:v>
+                  <c:v>31212733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7796,11 +9065,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="66217337"/>
-        <c:axId val="95729089"/>
+        <c:axId val="83697537"/>
+        <c:axId val="41741269"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66217337"/>
+        <c:axId val="83697537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7821,7 +9090,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7834,7 +9103,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7856,7 +9125,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95729089"/>
+        <c:crossAx val="41741269"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7864,7 +9133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95729089"/>
+        <c:axId val="41741269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7907,7 +9176,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7929,7 +9198,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66217337"/>
+        <c:crossAx val="83697537"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7997,7 +9266,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -k 500 -b 10000 -n 1</a:t>
+              <a:t>Map - stateless -s1 -n 1 -b 10000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8020,11 +9289,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$338</c:f>
+              <c:f>Foglio1!$B$404</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Map (Stateless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8076,317 +9345,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
+              <c:f>Foglio1!$A$405:$A$414</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$339:$B$346</c:f>
+              <c:f>Foglio1!$B$405:$B$414</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11756636</c:v>
+                  <c:v>8113731</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23444794</c:v>
+                  <c:v>8308307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46774517</c:v>
+                  <c:v>8448787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70612833</c:v>
+                  <c:v>8436646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92036331</c:v>
+                  <c:v>8410549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96289310</c:v>
+                  <c:v>8606700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96528209</c:v>
+                  <c:v>8509144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96505736</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$338</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$339:$C$346</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11672675</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23391328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46663490</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70403458</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92362312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96975153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97175518</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96857804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$338</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$339:$D$346</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11791517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23586453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41700074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41669437</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41555796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41476157</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41558518</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41529167</c:v>
+                  <c:v>8450967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7534965</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8401,11 +9430,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94113939"/>
-        <c:axId val="65783812"/>
+        <c:axId val="31469126"/>
+        <c:axId val="21005508"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94113939"/>
+        <c:axId val="31469126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8426,7 +9455,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Sources</a:t>
+                  <a:t>Keys</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8461,7 +9490,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65783812"/>
+        <c:crossAx val="21005508"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8469,7 +9498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65783812"/>
+        <c:axId val="21005508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8534,7 +9563,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94113939"/>
+        <c:crossAx val="31469126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8602,7 +9631,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -k 500 -b 10000 -n 1</a:t>
+              <a:t>Filter - Stateless -s 1 -n 1  -b 10000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8625,11 +9654,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$367</c:f>
+              <c:f>Foglio1!$B$428</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Filter (Stateless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8681,317 +9710,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
+              <c:f>Foglio1!$A$429:$A$438</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$368:$B$375</c:f>
+              <c:f>Foglio1!$B$429:$B$438</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11608420</c:v>
+                  <c:v>8077970</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23308437</c:v>
+                  <c:v>7825387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47002649</c:v>
+                  <c:v>7939100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56095786</c:v>
+                  <c:v>8168414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55773657</c:v>
+                  <c:v>8175451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56367794</c:v>
+                  <c:v>7953574</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56689984</c:v>
+                  <c:v>8122794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57174319</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$367</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$368:$C$375</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11678178</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23408735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47298017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56075027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56359090</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56576403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56765060</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57252511</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$367</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$368:$D$375</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11657683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23159548</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30993214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30958285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31018000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31035194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31240994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31212733</c:v>
+                  <c:v>8136413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6298765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>418992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9006,11 +9795,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69439517"/>
-        <c:axId val="45308587"/>
+        <c:axId val="56941262"/>
+        <c:axId val="87640202"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69439517"/>
+        <c:axId val="56941262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9031,7 +9820,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Sources</a:t>
+                  <a:t>Keys</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9066,7 +9855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45308587"/>
+        <c:crossAx val="87640202"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9074,7 +9863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45308587"/>
+        <c:axId val="87640202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9139,7 +9928,653 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69439517"/>
+        <c:crossAx val="56941262"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Map - Stateless -s 1 -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$455</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Stateless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$456:$A$458</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$456:$B$458</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4837020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7588236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8436646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="24903071"/>
+        <c:axId val="78655117"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24903071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78655117"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78655117"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24903071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Filter - Stateless -s 1  -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$478</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Stateless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$479:$A$481</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$479:$B$481</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2058779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8168414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="44625804"/>
+        <c:axId val="95465271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44625804"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95465271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95465271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44625804"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9194,11 +10629,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>27000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
+      <xdr:colOff>353160</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
@@ -9208,8 +10643,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5634360" y="907920"/>
-        <a:ext cx="5769720" cy="3241440"/>
+        <a:off x="5829480" y="908280"/>
+        <a:ext cx="5773320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9228,9 +10663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324720</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9238,8 +10673,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5605920" y="8671320"/>
-        <a:ext cx="5769720" cy="3946680"/>
+        <a:off x="5801040" y="8671320"/>
+        <a:ext cx="5773320" cy="3946320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9254,11 +10689,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>30960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
@@ -9268,8 +10703,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5638320" y="4514040"/>
-        <a:ext cx="5765400" cy="3686760"/>
+        <a:off x="5833440" y="4514400"/>
+        <a:ext cx="5769000" cy="3686400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9288,9 +10723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
+      <xdr:colOff>376200</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9298,8 +10733,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5657400" y="18005760"/>
-        <a:ext cx="5769720" cy="3714480"/>
+        <a:off x="5852520" y="18005760"/>
+        <a:ext cx="5773320" cy="3714120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9318,9 +10753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352440</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9328,8 +10763,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5647320" y="12976200"/>
-        <a:ext cx="5755680" cy="3888000"/>
+        <a:off x="5842440" y="12976200"/>
+        <a:ext cx="5759280" cy="3887640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9344,11 +10779,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>79560</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
+      <xdr:colOff>401400</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
@@ -9358,8 +10793,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5686920" y="22433400"/>
-        <a:ext cx="5765400" cy="3675960"/>
+        <a:off x="5882040" y="22433760"/>
+        <a:ext cx="5769000" cy="3675600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9378,9 +10813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9388,8 +10823,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5677200" y="27577800"/>
-        <a:ext cx="5775480" cy="3241800"/>
+        <a:off x="5872320" y="27577800"/>
+        <a:ext cx="5779080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9404,11 +10839,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
+      <xdr:colOff>333000</xdr:colOff>
       <xdr:row>240</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
@@ -9418,8 +10853,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5616360" y="35802000"/>
-        <a:ext cx="5767560" cy="3559320"/>
+        <a:off x="5811480" y="35802360"/>
+        <a:ext cx="5771160" cy="3558960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9434,11 +10869,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>39960</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352440</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -9448,8 +10883,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5647320" y="31488840"/>
-        <a:ext cx="5755680" cy="3538080"/>
+        <a:off x="5842440" y="31489200"/>
+        <a:ext cx="5759280" cy="3537720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9464,11 +10899,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>50040</xdr:colOff>
       <xdr:row>243</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
+      <xdr:colOff>371880</xdr:colOff>
       <xdr:row>267</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
@@ -9478,8 +10913,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5657400" y="39712320"/>
-        <a:ext cx="5765400" cy="4028040"/>
+        <a:off x="5852520" y="39712680"/>
+        <a:ext cx="5769000" cy="4027680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9494,11 +10929,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>62640</xdr:colOff>
       <xdr:row>276</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
+      <xdr:colOff>387000</xdr:colOff>
       <xdr:row>298</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -9508,8 +10943,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5670000" y="45125640"/>
-        <a:ext cx="5767920" cy="3662280"/>
+        <a:off x="5865120" y="45126000"/>
+        <a:ext cx="5771520" cy="3661920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9528,9 +10963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>342360</xdr:colOff>
       <xdr:row>328</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9538,8 +10973,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5627880" y="49743720"/>
-        <a:ext cx="5765400" cy="3844440"/>
+        <a:off x="5823000" y="49743720"/>
+        <a:ext cx="5769000" cy="3844080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9554,11 +10989,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>36720</xdr:colOff>
       <xdr:row>337</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>360</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
@@ -9568,8 +11003,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5644080" y="55113480"/>
-        <a:ext cx="5759640" cy="3751560"/>
+        <a:off x="5839200" y="55113840"/>
+        <a:ext cx="5763240" cy="3751200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9584,11 +11019,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>59760</xdr:colOff>
       <xdr:row>366</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381960</xdr:colOff>
+      <xdr:colOff>381600</xdr:colOff>
       <xdr:row>390</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
@@ -9598,12 +11033,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5667120" y="59851080"/>
-        <a:ext cx="5765400" cy="3891240"/>
+        <a:off x="5862240" y="59851440"/>
+        <a:ext cx="5769000" cy="3890880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1171800</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483480</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3259440" y="65778840"/>
+        <a:ext cx="5760720" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1092960</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>405000</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3180600" y="69632280"/>
+        <a:ext cx="5761080" cy="3232080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>87840</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654480</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3430440" y="74059560"/>
+        <a:ext cx="5760720" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105120</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3447720" y="77881680"/>
+        <a:ext cx="5752800" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9617,14 +11172,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E379" activeCellId="0" sqref="E379"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H395" activeCellId="0" sqref="H395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
@@ -11879,8 +13435,300 @@
         <v>31212733</v>
       </c>
     </row>
+    <row r="395" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B405" s="4" t="n">
+        <v>8113731</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B406" s="4" t="n">
+        <v>8308307</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B407" s="4" t="n">
+        <v>8448787</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="B408" s="4" t="n">
+        <v>8436646</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B409" s="4" t="n">
+        <v>8410549</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B410" s="4" t="n">
+        <v>8606700</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B411" s="4" t="n">
+        <v>8509144</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B412" s="4" t="n">
+        <v>8450967</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B413" s="4" t="n">
+        <v>7534965</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B414" s="4" t="n">
+        <v>422816</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B429" s="4" t="n">
+        <v>8077970</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B430" s="4" t="n">
+        <v>7825387</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B431" s="4" t="n">
+        <v>7939100</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="B432" s="4" t="n">
+        <v>8168414</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B433" s="4" t="n">
+        <v>8175451</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B434" s="4" t="n">
+        <v>7953574</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B435" s="4" t="n">
+        <v>8122794</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B436" s="4" t="n">
+        <v>8136413</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B437" s="4" t="n">
+        <v>6298765</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B438" s="4" t="n">
+        <v>418992</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B456" s="4" t="n">
+        <v>4837020</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B457" s="4" t="n">
+        <v>7588236</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B458" s="4" t="n">
+        <v>8436646</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B479" s="4" t="n">
+        <v>2058779</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B480" s="4" t="n">
+        <v>7000820</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B481" s="4" t="n">
+        <v>8168414</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A106:E106"/>
@@ -11891,6 +13739,10 @@
     <mergeCell ref="A273:E273"/>
     <mergeCell ref="A335:E335"/>
     <mergeCell ref="A336:E336"/>
+    <mergeCell ref="A400:E400"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A451:E451"/>
+    <mergeCell ref="A452:E452"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/GPU_Tests/new_tests/results/results.xlsx
+++ b/src/GPU_Tests/new_tests/results/results.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="nano-map-stateless-batch" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nano-map-stateless-keys" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t xml:space="preserve">Configuration: dataset with 80000 tuples, -s 1 -b 10000 -n 1</t>
   </si>
@@ -76,16 +78,22 @@
     <t xml:space="preserve">Stateless versions, for reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Map (Stateless)</t>
+    <t xml:space="preserve">Map (One per warp)</t>
   </si>
   <si>
-    <t xml:space="preserve">Filter (Stateless)</t>
+    <t xml:space="preserve">Map (No warps)</t>
   </si>
   <si>
     <t xml:space="preserve">Configuration: dataset with 80000 tuples, -s 1 -k 500 -n 1</t>
   </si>
   <si>
     <t xml:space="preserve">Batch length (-b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map (Stateless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter (Stateless)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +330,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -785,11 +793,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32101458"/>
-        <c:axId val="79768420"/>
+        <c:axId val="24936744"/>
+        <c:axId val="42542410"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32101458"/>
+        <c:axId val="24936744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +825,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79768420"/>
+        <c:crossAx val="42542410"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -825,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79768420"/>
+        <c:axId val="42542410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +898,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32101458"/>
+        <c:crossAx val="24936744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -938,7 +946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -958,7 +966,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Nano -s 1 -b 10000 -n 1</a:t>
+              <a:t>Filter - Nano -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -981,11 +989,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$54:$B$54</c:f>
+              <c:f>Foglio1!$B$244:$B$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1038,7 +1046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1076,39 +1084,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$55:$B$64</c:f>
+              <c:f>Foglio1!$B$245:$B$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512541</c:v>
+                  <c:v>496081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3883650</c:v>
+                  <c:v>3235078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6868576</c:v>
+                  <c:v>8014328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7210229</c:v>
+                  <c:v>8471320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6570657</c:v>
+                  <c:v>7373002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6686321</c:v>
+                  <c:v>7052776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5767242</c:v>
+                  <c:v>6585774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5464904</c:v>
+                  <c:v>5444301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5238840</c:v>
+                  <c:v>5098484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5059971</c:v>
+                  <c:v>5033552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,11 +1128,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$54:$C$54</c:f>
+              <c:f>Foglio1!$C$244:$C$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,7 +1185,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1215,39 +1223,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$55:$C$64</c:f>
+              <c:f>Foglio1!$C$245:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512652</c:v>
+                  <c:v>497380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3881602</c:v>
+                  <c:v>3246443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6840008</c:v>
+                  <c:v>5990859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7012945</c:v>
+                  <c:v>6013609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6624486</c:v>
+                  <c:v>6007296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6551707</c:v>
+                  <c:v>5935758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6309201</c:v>
+                  <c:v>5906369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5802040</c:v>
+                  <c:v>5724821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5349854</c:v>
+                  <c:v>5286865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5225565</c:v>
+                  <c:v>5265371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,11 +1267,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$54:$D$54</c:f>
+              <c:f>Foglio1!$D$244:$D$244</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1316,7 +1324,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$55:$A$64</c:f>
+              <c:f>Foglio1!$A$245:$A$254</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1354,39 +1362,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$55:$D$64</c:f>
+              <c:f>Foglio1!$D$245:$D$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>509678</c:v>
+                  <c:v>487410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3524362</c:v>
+                  <c:v>3029578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6887566</c:v>
+                  <c:v>8661034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7123047</c:v>
+                  <c:v>8471788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6573388</c:v>
+                  <c:v>7514817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6663278</c:v>
+                  <c:v>7494017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5962506</c:v>
+                  <c:v>6171258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5698789</c:v>
+                  <c:v>5258946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5254879</c:v>
+                  <c:v>5097443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5010527</c:v>
+                  <c:v>5047209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,11 +1409,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59537691"/>
-        <c:axId val="25889501"/>
+        <c:axId val="48432014"/>
+        <c:axId val="58274654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59537691"/>
+        <c:axId val="48432014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1469,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25889501"/>
+        <c:crossAx val="58274654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1469,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25889501"/>
+        <c:axId val="58274654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59537691"/>
+        <c:crossAx val="48432014"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1582,7 +1590,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1602,7 +1610,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s1 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1625,11 +1633,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$28:$B$28</c:f>
+              <c:f>Foglio1!$B$277:$B$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1682,7 +1690,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1720,39 +1728,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$29:$B$38</c:f>
+              <c:f>Foglio1!$B$278:$B$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>434587</c:v>
+                  <c:v>741347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3948169</c:v>
+                  <c:v>5733523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10663428</c:v>
+                  <c:v>8355894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11608420</c:v>
+                  <c:v>2280451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11332232</c:v>
+                  <c:v>1243358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11391527</c:v>
+                  <c:v>23007630</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10921719</c:v>
+                  <c:v>21935303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10584890</c:v>
+                  <c:v>21258589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10128853</c:v>
+                  <c:v>20294343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9950162</c:v>
+                  <c:v>19900394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,11 +1772,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$28:$C$28</c:f>
+              <c:f>Foglio1!$C$277:$C$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1821,7 +1829,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1859,39 +1867,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$29:$C$38</c:f>
+              <c:f>Foglio1!$C$278:$C$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433210</c:v>
+                  <c:v>737435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3945022</c:v>
+                  <c:v>5710211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10634018</c:v>
+                  <c:v>8348379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11678178</c:v>
+                  <c:v>2283669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11495144</c:v>
+                  <c:v>1247454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11400862</c:v>
+                  <c:v>1202886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10952422</c:v>
+                  <c:v>616266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10657727</c:v>
+                  <c:v>336563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10187295</c:v>
+                  <c:v>219828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9982726</c:v>
+                  <c:v>200604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +1911,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$28:$D$28</c:f>
+              <c:f>Foglio1!$D$277:$D$277</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1960,7 +1968,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$29:$A$38</c:f>
+              <c:f>Foglio1!$A$278:$A$287</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1998,39 +2006,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$29:$D$38</c:f>
+              <c:f>Foglio1!$D$278:$D$287</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>442000</c:v>
+                  <c:v>24408160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2216347</c:v>
+                  <c:v>22649960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9164936</c:v>
+                  <c:v>21251565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11657683</c:v>
+                  <c:v>23488731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11498824</c:v>
+                  <c:v>22954533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11497656</c:v>
+                  <c:v>22941960</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11061228</c:v>
+                  <c:v>21900453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10656949</c:v>
+                  <c:v>21168537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10283779</c:v>
+                  <c:v>20133331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10077345</c:v>
+                  <c:v>19852848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,11 +2053,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67452287"/>
-        <c:axId val="11644527"/>
+        <c:axId val="96903035"/>
+        <c:axId val="59948841"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67452287"/>
+        <c:axId val="96903035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2113,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11644527"/>
+        <c:crossAx val="59948841"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2113,7 +2121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11644527"/>
+        <c:axId val="59948841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67452287"/>
+        <c:crossAx val="96903035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2226,7 +2234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2246,7 +2254,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 14 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2269,11 +2277,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$111:$B$111</c:f>
+              <c:f>Foglio1!$B$307:$B$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2326,7 +2334,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2364,39 +2372,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$112:$B$121</c:f>
+              <c:f>Foglio1!$B$308:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>439205</c:v>
+                  <c:v>722745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4102767</c:v>
+                  <c:v>5415486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32218835</c:v>
+                  <c:v>7822499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96505736</c:v>
+                  <c:v>2226389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116766776</c:v>
+                  <c:v>1220676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118573541</c:v>
+                  <c:v>22529923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111369022</c:v>
+                  <c:v>21316330</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87498198</c:v>
+                  <c:v>20805895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58684476</c:v>
+                  <c:v>19901219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49217013</c:v>
+                  <c:v>19616100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,11 +2416,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$111:$C$111</c:f>
+              <c:f>Foglio1!$C$307:$C$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2465,7 +2473,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2503,39 +2511,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$112:$C$121</c:f>
+              <c:f>Foglio1!$C$308:$C$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>439118</c:v>
+                  <c:v>720278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4101274</c:v>
+                  <c:v>5403991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32279556</c:v>
+                  <c:v>7815017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96857804</c:v>
+                  <c:v>2234595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118219761</c:v>
+                  <c:v>1227647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104252292</c:v>
+                  <c:v>1182542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105671220</c:v>
+                  <c:v>612835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83724523</c:v>
+                  <c:v>334324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58377160</c:v>
+                  <c:v>220181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50274765</c:v>
+                  <c:v>197483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,11 +2555,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$111:$D$111</c:f>
+              <c:f>Foglio1!$D$307:$D$307</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2604,7 +2612,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$112:$A$121</c:f>
+              <c:f>Foglio1!$A$308:$A$317</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2642,39 +2650,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$112:$D$121</c:f>
+              <c:f>Foglio1!$D$308:$D$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>447496</c:v>
+                  <c:v>24045556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2343902</c:v>
+                  <c:v>22495596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10196813</c:v>
+                  <c:v>21765265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41529167</c:v>
+                  <c:v>23211414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68060297</c:v>
+                  <c:v>22622410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70281636</c:v>
+                  <c:v>22710719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102961495</c:v>
+                  <c:v>21649371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92174803</c:v>
+                  <c:v>20979190</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58484597</c:v>
+                  <c:v>20049781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50335212</c:v>
+                  <c:v>19727623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,11 +2697,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89540160"/>
-        <c:axId val="47234322"/>
+        <c:axId val="51674376"/>
+        <c:axId val="97220823"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89540160"/>
+        <c:axId val="51674376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2757,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47234322"/>
+        <c:crossAx val="97220823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2757,7 +2765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47234322"/>
+        <c:axId val="97220823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2830,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89540160"/>
+        <c:crossAx val="51674376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2870,7 +2878,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2890,7 +2898,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Nano -s 1 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2913,11 +2921,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$80:$B$80</c:f>
+              <c:f>Foglio1!$B$338:$B$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2970,77 +2978,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$81:$B$90</c:f>
+              <c:f>Foglio1!$B$339:$B$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>497814</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11756636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3224045</c:v>
+                  <c:v>23444794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6282103</c:v>
+                  <c:v>46774517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6635357</c:v>
+                  <c:v>70612833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6219444</c:v>
+                  <c:v>92036331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6408101</c:v>
+                  <c:v>96289310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5537822</c:v>
+                  <c:v>96528209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5290093</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4816920</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4738970</c:v>
+                  <c:v>96505736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,11 +3048,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$80:$C$80</c:f>
+              <c:f>Foglio1!$C$338:$C$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3109,77 +3105,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$81:$C$90</c:f>
+              <c:f>Foglio1!$C$339:$C$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>497708</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11672675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3196580</c:v>
+                  <c:v>23391328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6056530</c:v>
+                  <c:v>46663490</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6203969</c:v>
+                  <c:v>70403458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6080916</c:v>
+                  <c:v>92362312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6022828</c:v>
+                  <c:v>96975153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5806916</c:v>
+                  <c:v>97175518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5452442</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5162902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4980838</c:v>
+                  <c:v>96857804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,11 +3175,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$80:$D$80</c:f>
+              <c:f>Foglio1!$D$338:$D$338</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3248,77 +3232,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$81:$A$90</c:f>
+              <c:f>Foglio1!$A$339:$A$346</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$81:$D$90</c:f>
+              <c:f>Foglio1!$D$339:$D$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>488703</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11791517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2990850</c:v>
+                  <c:v>23586453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6722932</c:v>
+                  <c:v>41700074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6590552</c:v>
+                  <c:v>41669437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5935298</c:v>
+                  <c:v>41555796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6412581</c:v>
+                  <c:v>41476157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5687103</c:v>
+                  <c:v>41558518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5172473</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4948705</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4624602</c:v>
+                  <c:v>41529167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,11 +3305,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25151069"/>
-        <c:axId val="79982573"/>
+        <c:axId val="6278901"/>
+        <c:axId val="90281015"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25151069"/>
+        <c:axId val="6278901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3330,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3393,7 +3365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79982573"/>
+        <c:crossAx val="90281015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3401,7 +3373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79982573"/>
+        <c:axId val="90281015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +3438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25151069"/>
+        <c:crossAx val="6278901"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3514,7 +3486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3534,7 +3506,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 14 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3557,7 +3529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$138:$B$138</c:f>
+              <c:f>Foglio1!$B$367:$B$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3614,77 +3586,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$139:$B$148</c:f>
+              <c:f>Foglio1!$B$368:$B$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>434629</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11608420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3944481</c:v>
+                  <c:v>23308437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26410459</c:v>
+                  <c:v>47002649</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>56095786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55773657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56367794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56689984</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57174319</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62005952</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62027545</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58861383</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53301817</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40808692</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37273277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$138:$C$138</c:f>
+              <c:f>Foglio1!$C$367:$C$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3753,77 +3713,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$139:$C$148</c:f>
+              <c:f>Foglio1!$C$368:$C$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>433171</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11678178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3932252</c:v>
+                  <c:v>23408735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26460357</c:v>
+                  <c:v>47298017</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>56075027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56359090</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56576403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56765060</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57252511</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61968525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58270275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58062697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52288240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39703823</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37269051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,7 +3783,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$138:$D$138</c:f>
+              <c:f>Foglio1!$D$367:$D$367</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3892,77 +3840,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$139:$A$148</c:f>
+              <c:f>Foglio1!$A$368:$A$375</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$139:$D$148</c:f>
+              <c:f>Foglio1!$D$368:$D$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>441440</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11657683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2217352</c:v>
+                  <c:v>23159548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9267378</c:v>
+                  <c:v>30993214</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>30958285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31018000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31035194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31240994</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31212733</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43910294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44925059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58234016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53281313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38627342</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37072436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,11 +3913,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16849265"/>
-        <c:axId val="32108020"/>
+        <c:axId val="19821931"/>
+        <c:axId val="86726926"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16849265"/>
+        <c:axId val="19821931"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +3938,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4037,7 +3973,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32108020"/>
+        <c:crossAx val="86726926"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4045,7 +3981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32108020"/>
+        <c:axId val="86726926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4046,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16849265"/>
+        <c:crossAx val="19821931"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4158,7 +4094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4178,19 +4114,11 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 2 -b 10000 -n 1</a:t>
+              <a:t>Map - Stateless - Nano -s 1 -n 1 -b 10000</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.325277189485486"/>
-          <c:y val="0.0353137146029983"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4209,11 +4137,1167 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$169:$B$169</c:f>
+              <c:f>Foglio1!$B$403</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Map (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$404:$A$413</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$404:$B$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8523685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8299342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8462811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8430318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8306032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8445980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7285115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8520147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7607754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>423328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$403</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$404:$A$413</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$404:$C$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8620809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8510979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7379101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8165479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4239702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7886717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5011908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3063936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1726115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$403</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$404:$A$413</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$404:$D$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8427848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8307281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8535448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8574062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8520762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8825226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8175625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8509028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7493692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="75831728"/>
+        <c:axId val="44117673"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75831728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Keys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44117673"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44117673"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75831728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Map - Stateless - Nano -s 1 -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$439</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Stateless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$440:$A$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$440:$B$442</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4721917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7799193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8430318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$439</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$440:$A$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$440:$C$442</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4574673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7911064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8165479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$439</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$440:$A$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$440:$D$442</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5341444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8310345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8574062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="69366181"/>
+        <c:axId val="99010517"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69366181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99010517"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99010517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69366181"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Filter - Stateless -s 1  -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$463</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Stateless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4266,37 +5350,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
+              <c:f>Foglio1!$A$464:$A$466</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
@@ -4304,317 +5367,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$170:$B$179</c:f>
+              <c:f>Foglio1!$B$464:$B$466</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>440467</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2058779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4100397</c:v>
+                  <c:v>7000820</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21333312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23444794</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22835011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22854687</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21740655</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21115488</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20273211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19850536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$169:$C$169</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$170:$C$179</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>440833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4094483</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21386108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23391328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22831370</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22812810</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21801028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21171082</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20272609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19853672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$169:$D$169</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$170:$A$179</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$170:$D$179</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>447618</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2339971</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10211754</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23586453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23073622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23101988</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21952108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21291868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20071622</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19911172</c:v>
+                  <c:v>8168414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,11 +5393,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="10834761"/>
-        <c:axId val="78724200"/>
+        <c:axId val="19625351"/>
+        <c:axId val="7704918"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10834761"/>
+        <c:axId val="19625351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +5418,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Batch length</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4689,7 +5453,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78724200"/>
+        <c:crossAx val="7704918"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4697,7 +5461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78724200"/>
+        <c:axId val="7704918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +5526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10834761"/>
+        <c:crossAx val="19625351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4810,7 +5574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4830,7 +5594,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Nano -s 2 -b 10000 -n 1</a:t>
+              <a:t>Map - Nano -s 1 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4853,7 +5617,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$220:$B$220</c:f>
+              <c:f>Foglio1!$B$54:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4910,7 +5674,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4948,39 +5712,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$221:$B$230</c:f>
+              <c:f>Foglio1!$B$55:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512665</c:v>
+                  <c:v>512541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3851750</c:v>
+                  <c:v>3883650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11967731</c:v>
+                  <c:v>6868576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11729860</c:v>
+                  <c:v>7210229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10607682</c:v>
+                  <c:v>6570657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10549913</c:v>
+                  <c:v>6686321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9330526</c:v>
+                  <c:v>5767242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7508170</c:v>
+                  <c:v>5464904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6799744</c:v>
+                  <c:v>5238840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6688794</c:v>
+                  <c:v>5059971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,7 +5756,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$220:$C$220</c:f>
+              <c:f>Foglio1!$C$54:$C$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5049,7 +5813,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5087,39 +5851,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$221:$C$230</c:f>
+              <c:f>Foglio1!$C$55:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512850</c:v>
+                  <c:v>512652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3855884</c:v>
+                  <c:v>3881602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8898848</c:v>
+                  <c:v>6840008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9189934</c:v>
+                  <c:v>7012945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9279744</c:v>
+                  <c:v>6624486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9204397</c:v>
+                  <c:v>6551707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9049745</c:v>
+                  <c:v>6309201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8417801</c:v>
+                  <c:v>5802040</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7572086</c:v>
+                  <c:v>5349854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7482852</c:v>
+                  <c:v>5225565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,7 +5895,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$220:$D$220</c:f>
+              <c:f>Foglio1!$D$54:$D$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5188,7 +5952,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$221:$A$230</c:f>
+              <c:f>Foglio1!$A$55:$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5226,39 +5990,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$221:$D$230</c:f>
+              <c:f>Foglio1!$D$55:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>511162</c:v>
+                  <c:v>509678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3540946</c:v>
+                  <c:v>3524362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11967935</c:v>
+                  <c:v>6887566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11803611</c:v>
+                  <c:v>7123047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10600181</c:v>
+                  <c:v>6573388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10457890</c:v>
+                  <c:v>6663278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9150102</c:v>
+                  <c:v>5962506</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7098990</c:v>
+                  <c:v>5698789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6950255</c:v>
+                  <c:v>5254879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6743002</c:v>
+                  <c:v>5010527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5273,11 +6037,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24803773"/>
-        <c:axId val="86210889"/>
+        <c:axId val="20659600"/>
+        <c:axId val="80983600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24803773"/>
+        <c:axId val="20659600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +6097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86210889"/>
+        <c:crossAx val="80983600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5341,7 +6105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86210889"/>
+        <c:axId val="80983600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +6170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24803773"/>
+        <c:crossAx val="20659600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5454,7 +6218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5474,7 +6238,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1</a:t>
+              <a:t>Filter - Pianosa -s1 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5497,7 +6261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$193:$B$193</c:f>
+              <c:f>Foglio1!$B$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5554,7 +6318,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5592,39 +6356,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$194:$B$203</c:f>
+              <c:f>Foglio1!$B$29:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>434510</c:v>
+                  <c:v>434587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3962293</c:v>
+                  <c:v>3948169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21387107</c:v>
+                  <c:v>10663428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23308437</c:v>
+                  <c:v>11608420</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22744756</c:v>
+                  <c:v>11332232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22688269</c:v>
+                  <c:v>11391527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21777815</c:v>
+                  <c:v>10921719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21108435</c:v>
+                  <c:v>10584890</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20328142</c:v>
+                  <c:v>10128853</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19912605</c:v>
+                  <c:v>9950162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,7 +6400,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$193:$C$193</c:f>
+              <c:f>Foglio1!$C$28:$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5693,7 +6457,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5731,39 +6495,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$194:$C$203</c:f>
+              <c:f>Foglio1!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433261</c:v>
+                  <c:v>433210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3946132</c:v>
+                  <c:v>3945022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21375081</c:v>
+                  <c:v>10634018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23408735</c:v>
+                  <c:v>11678178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22944601</c:v>
+                  <c:v>11495144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22978033</c:v>
+                  <c:v>11400862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21937636</c:v>
+                  <c:v>10952422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21309372</c:v>
+                  <c:v>10657727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20360588</c:v>
+                  <c:v>10187295</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19951110</c:v>
+                  <c:v>9982726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5775,11 +6539,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$193:$D$193</c:f>
+              <c:f>Foglio1!$D$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
+                  <c:v>Filter (ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5832,7 +6596,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:f>Foglio1!$A$29:$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5870,39 +6634,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$194:$D$203</c:f>
+              <c:f>Foglio1!$D$29:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441486</c:v>
+                  <c:v>442000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2214387</c:v>
+                  <c:v>2216347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9208511</c:v>
+                  <c:v>9164936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23159548</c:v>
+                  <c:v>11657683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22478310</c:v>
+                  <c:v>11498824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22607832</c:v>
+                  <c:v>11497656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21546222</c:v>
+                  <c:v>11061228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20995312</c:v>
+                  <c:v>10656949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20077306</c:v>
+                  <c:v>10283779</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19697269</c:v>
+                  <c:v>10077345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5917,11 +6681,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98756413"/>
-        <c:axId val="64007844"/>
+        <c:axId val="534155"/>
+        <c:axId val="51926844"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98756413"/>
+        <c:axId val="534155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5977,7 +6741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64007844"/>
+        <c:crossAx val="51926844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5985,7 +6749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64007844"/>
+        <c:axId val="51926844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98756413"/>
+        <c:crossAx val="534155"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6098,7 +6862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6118,7 +6882,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Nano -s 2 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 14 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6141,11 +6905,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$244:$B$244</c:f>
+              <c:f>Foglio1!$B$111:$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6198,7 +6962,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6236,39 +7000,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$245:$B$254</c:f>
+              <c:f>Foglio1!$B$112:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>496081</c:v>
+                  <c:v>439205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3235078</c:v>
+                  <c:v>4102767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8014328</c:v>
+                  <c:v>32218835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8471320</c:v>
+                  <c:v>96505736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7373002</c:v>
+                  <c:v>116766776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7052776</c:v>
+                  <c:v>118573541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6585774</c:v>
+                  <c:v>111369022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5444301</c:v>
+                  <c:v>87498198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5098484</c:v>
+                  <c:v>58684476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5033552</c:v>
+                  <c:v>49217013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6280,11 +7044,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$244:$C$244</c:f>
+              <c:f>Foglio1!$C$111:$C$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6337,7 +7101,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6375,39 +7139,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$245:$C$254</c:f>
+              <c:f>Foglio1!$C$112:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>497380</c:v>
+                  <c:v>439118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3246443</c:v>
+                  <c:v>4101274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5990859</c:v>
+                  <c:v>32279556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6013609</c:v>
+                  <c:v>96857804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6007296</c:v>
+                  <c:v>118219761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5935758</c:v>
+                  <c:v>104252292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5906369</c:v>
+                  <c:v>105671220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5724821</c:v>
+                  <c:v>83724523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5286865</c:v>
+                  <c:v>58377160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5265371</c:v>
+                  <c:v>50274765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6419,11 +7183,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$244:$D$244</c:f>
+              <c:f>Foglio1!$D$111:$D$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6476,7 +7240,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$245:$A$254</c:f>
+              <c:f>Foglio1!$A$112:$A$121</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6514,39 +7278,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$245:$D$254</c:f>
+              <c:f>Foglio1!$D$112:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>487410</c:v>
+                  <c:v>447496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3029578</c:v>
+                  <c:v>2343902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8661034</c:v>
+                  <c:v>10196813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8471788</c:v>
+                  <c:v>41529167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7514817</c:v>
+                  <c:v>68060297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7494017</c:v>
+                  <c:v>70281636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6171258</c:v>
+                  <c:v>102961495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5258946</c:v>
+                  <c:v>92174803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5097443</c:v>
+                  <c:v>58484597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5047209</c:v>
+                  <c:v>50335212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6561,11 +7325,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="9941266"/>
-        <c:axId val="73183144"/>
+        <c:axId val="17881910"/>
+        <c:axId val="79829688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9941266"/>
+        <c:axId val="17881910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6621,7 +7385,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73183144"/>
+        <c:crossAx val="79829688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6629,7 +7393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73183144"/>
+        <c:axId val="79829688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,7 +7458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9941266"/>
+        <c:crossAx val="17881910"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6742,7 +7506,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6762,7 +7526,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
+              <a:t>Filter - Nano -s 1 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6785,11 +7549,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$277:$B$277</c:f>
+              <c:f>Foglio1!$B$80:$B$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Adaptive)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6842,7 +7606,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6880,39 +7644,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$278:$B$287</c:f>
+              <c:f>Foglio1!$B$81:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>741347</c:v>
+                  <c:v>497814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5733523</c:v>
+                  <c:v>3224045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8355894</c:v>
+                  <c:v>6282103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2280451</c:v>
+                  <c:v>6635357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1243358</c:v>
+                  <c:v>6219444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23007630</c:v>
+                  <c:v>6408101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21935303</c:v>
+                  <c:v>5537822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21258589</c:v>
+                  <c:v>5290093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20294343</c:v>
+                  <c:v>4816920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19900394</c:v>
+                  <c:v>4738970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6924,11 +7688,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$277:$C$277</c:f>
+              <c:f>Foglio1!$C$80:$C$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (one per warp)</c:v>
+                  <c:v>Filter (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6981,7 +7745,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7019,39 +7783,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$278:$C$287</c:f>
+              <c:f>Foglio1!$C$81:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>737435</c:v>
+                  <c:v>497708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5710211</c:v>
+                  <c:v>3196580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8348379</c:v>
+                  <c:v>6056530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2283669</c:v>
+                  <c:v>6203969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1247454</c:v>
+                  <c:v>6080916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1202886</c:v>
+                  <c:v>6022828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616266</c:v>
+                  <c:v>5806916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336563</c:v>
+                  <c:v>5452442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219828</c:v>
+                  <c:v>5162902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200604</c:v>
+                  <c:v>4980838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7063,11 +7827,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$277:$D$277</c:f>
+              <c:f>Foglio1!$D$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Ignoring warps)</c:v>
+                  <c:v>Filter (ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7120,7 +7884,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$278:$A$287</c:f>
+              <c:f>Foglio1!$A$81:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7158,39 +7922,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$278:$D$287</c:f>
+              <c:f>Foglio1!$D$81:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24408160</c:v>
+                  <c:v>488703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22649960</c:v>
+                  <c:v>2990850</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21251565</c:v>
+                  <c:v>6722932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23488731</c:v>
+                  <c:v>6590552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22954533</c:v>
+                  <c:v>5935298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22941960</c:v>
+                  <c:v>6412581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21900453</c:v>
+                  <c:v>5687103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21168537</c:v>
+                  <c:v>5172473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20133331</c:v>
+                  <c:v>4948705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19852848</c:v>
+                  <c:v>4624602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7205,11 +7969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67110031"/>
-        <c:axId val="29337236"/>
+        <c:axId val="62385860"/>
+        <c:axId val="10675714"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67110031"/>
+        <c:axId val="62385860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7265,7 +8029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29337236"/>
+        <c:crossAx val="10675714"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7273,7 +8037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29337236"/>
+        <c:axId val="10675714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7338,7 +8102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67110031"/>
+        <c:crossAx val="62385860"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7386,7 +8150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7406,7 +8170,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1 __SHARED__</a:t>
+              <a:t>Filter - Pianosa -s 14 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7429,7 +8193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$307:$B$307</c:f>
+              <c:f>Foglio1!$B$138:$B$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7486,7 +8250,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7524,39 +8288,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$308:$B$317</c:f>
+              <c:f>Foglio1!$B$139:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>722745</c:v>
+                  <c:v>434629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5415486</c:v>
+                  <c:v>3944481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7822499</c:v>
+                  <c:v>26410459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2226389</c:v>
+                  <c:v>57174319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1220676</c:v>
+                  <c:v>62005952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22529923</c:v>
+                  <c:v>62027545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21316330</c:v>
+                  <c:v>58861383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20805895</c:v>
+                  <c:v>53301817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19901219</c:v>
+                  <c:v>40808692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19616100</c:v>
+                  <c:v>37273277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7568,7 +8332,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$307:$C$307</c:f>
+              <c:f>Foglio1!$C$138:$C$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7625,7 +8389,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7663,39 +8427,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$308:$C$317</c:f>
+              <c:f>Foglio1!$C$139:$C$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>720278</c:v>
+                  <c:v>433171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5403991</c:v>
+                  <c:v>3932252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7815017</c:v>
+                  <c:v>26460357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2234595</c:v>
+                  <c:v>57252511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1227647</c:v>
+                  <c:v>61968525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1182542</c:v>
+                  <c:v>58270275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>612835</c:v>
+                  <c:v>58062697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>334324</c:v>
+                  <c:v>52288240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220181</c:v>
+                  <c:v>39703823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>197483</c:v>
+                  <c:v>37269051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7707,7 +8471,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$307:$D$307</c:f>
+              <c:f>Foglio1!$D$138:$D$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7764,7 +8528,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$308:$A$317</c:f>
+              <c:f>Foglio1!$A$139:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7802,39 +8566,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$308:$D$317</c:f>
+              <c:f>Foglio1!$D$139:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24045556</c:v>
+                  <c:v>441440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22495596</c:v>
+                  <c:v>2217352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21765265</c:v>
+                  <c:v>9267378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23211414</c:v>
+                  <c:v>31212733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22622410</c:v>
+                  <c:v>43910294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22710719</c:v>
+                  <c:v>44925059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21649371</c:v>
+                  <c:v>58234016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20979190</c:v>
+                  <c:v>53281313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20049781</c:v>
+                  <c:v>38627342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19727623</c:v>
+                  <c:v>37072436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7849,11 +8613,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63045443"/>
-        <c:axId val="25347979"/>
+        <c:axId val="30461125"/>
+        <c:axId val="65485174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63045443"/>
+        <c:axId val="30461125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,7 +8673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25347979"/>
+        <c:crossAx val="65485174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7917,7 +8681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25347979"/>
+        <c:axId val="65485174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7982,7 +8746,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63045443"/>
+        <c:crossAx val="30461125"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8030,7 +8794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8050,11 +8814,19 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Pianosa -k 500 -b 10000 -n 1</a:t>
+              <a:t>Map - Pianosa -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.325281703293283"/>
+          <c:y val="0.0354286983562861"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8073,7 +8845,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$338:$B$338</c:f>
+              <c:f>Foglio1!$B$169:$B$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8130,65 +8902,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$339:$B$346</c:f>
+              <c:f>Foglio1!$B$170:$B$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11756636</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>440467</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4100397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21333312</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>23444794</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>46774517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70612833</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>92036331</c:v>
+                  <c:v>22835011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96289310</c:v>
+                  <c:v>22854687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96528209</c:v>
+                  <c:v>21740655</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96505736</c:v>
+                  <c:v>21115488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20273211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19850536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8200,7 +8984,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$338:$C$338</c:f>
+              <c:f>Foglio1!$C$169:$C$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8257,65 +9041,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$339:$C$346</c:f>
+              <c:f>Foglio1!$C$170:$C$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11672675</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>440833</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4094483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21386108</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>23391328</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>46663490</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70403458</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>92362312</c:v>
+                  <c:v>22831370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96975153</c:v>
+                  <c:v>22812810</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97175518</c:v>
+                  <c:v>21801028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96857804</c:v>
+                  <c:v>21171082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20272609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19853672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,7 +9123,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$338:$D$338</c:f>
+              <c:f>Foglio1!$D$169:$D$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8384,65 +9180,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$339:$A$346</c:f>
+              <c:f>Foglio1!$A$170:$A$179</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$339:$D$346</c:f>
+              <c:f>Foglio1!$D$170:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11791517</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>447618</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2339971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10211754</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>23586453</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>41700074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41669437</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>41555796</c:v>
+                  <c:v>23073622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41476157</c:v>
+                  <c:v>23101988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41558518</c:v>
+                  <c:v>21952108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41529167</c:v>
+                  <c:v>21291868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20071622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19911172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8457,11 +9265,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="10102896"/>
-        <c:axId val="63308827"/>
+        <c:axId val="89011911"/>
+        <c:axId val="71743321"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10102896"/>
+        <c:axId val="89011911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,7 +9290,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Sources</a:t>
+                  <a:t>Keys</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8517,7 +9325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63308827"/>
+        <c:crossAx val="71743321"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8525,7 +9333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63308827"/>
+        <c:axId val="71743321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8590,7 +9398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10102896"/>
+        <c:crossAx val="89011911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8638,7 +9446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8658,7 +9466,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa -k 500 -b 10000 -n 1</a:t>
+              <a:t>Map - Nano -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8681,11 +9489,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$367:$B$367</c:f>
+              <c:f>Foglio1!$B$220:$B$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8738,65 +9546,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$368:$B$375</c:f>
+              <c:f>Foglio1!$B$221:$B$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11608420</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23308437</c:v>
+                  <c:v>3851750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47002649</c:v>
+                  <c:v>11967731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56095786</c:v>
+                  <c:v>11729860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55773657</c:v>
+                  <c:v>10607682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56367794</c:v>
+                  <c:v>10549913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56689984</c:v>
+                  <c:v>9330526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57174319</c:v>
+                  <c:v>7508170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6799744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6688794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8808,11 +9628,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$367:$C$367</c:f>
+              <c:f>Foglio1!$C$220:$C$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (one per warp)</c:v>
+                  <c:v>Map (one per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8865,65 +9685,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$368:$C$375</c:f>
+              <c:f>Foglio1!$C$221:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11678178</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23408735</c:v>
+                  <c:v>3855884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47298017</c:v>
+                  <c:v>8898848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56075027</c:v>
+                  <c:v>9189934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56359090</c:v>
+                  <c:v>9279744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56576403</c:v>
+                  <c:v>9204397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56765060</c:v>
+                  <c:v>9049745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57252511</c:v>
+                  <c:v>8417801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7572086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7482852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8935,11 +9767,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$367:$D$367</c:f>
+              <c:f>Foglio1!$D$220:$D$220</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Ignoring warps)</c:v>
+                  <c:v>Map (Ignoring warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8992,65 +9824,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$368:$A$375</c:f>
+              <c:f>Foglio1!$A$221:$A$230</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$368:$D$375</c:f>
+              <c:f>Foglio1!$D$221:$D$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11657683</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>511162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23159548</c:v>
+                  <c:v>3540946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30993214</c:v>
+                  <c:v>11967935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30958285</c:v>
+                  <c:v>11803611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31018000</c:v>
+                  <c:v>10600181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31035194</c:v>
+                  <c:v>10457890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31240994</c:v>
+                  <c:v>9150102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31212733</c:v>
+                  <c:v>7098990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6950255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6743002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9065,11 +9909,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83697537"/>
-        <c:axId val="41741269"/>
+        <c:axId val="93602624"/>
+        <c:axId val="79089279"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83697537"/>
+        <c:axId val="93602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9090,7 +9934,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Sources</a:t>
+                  <a:t>Keys</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9125,7 +9969,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41741269"/>
+        <c:crossAx val="79089279"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9133,7 +9977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41741269"/>
+        <c:axId val="79089279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,7 +10042,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83697537"/>
+        <c:crossAx val="93602624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9246,7 +10090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9266,7 +10110,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - stateless -s1 -n 1 -b 10000</a:t>
+              <a:t>Filter - Pianosa -s 2 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9289,11 +10133,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$404</c:f>
+              <c:f>Foglio1!$B$193:$B$193</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map (Stateless)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9330,6 +10174,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9345,7 +10190,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$405:$A$414</c:f>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9383,39 +10228,317 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$405:$B$414</c:f>
+              <c:f>Foglio1!$B$194:$B$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8113731</c:v>
+                  <c:v>434510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8308307</c:v>
+                  <c:v>3962293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8448787</c:v>
+                  <c:v>21387107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8436646</c:v>
+                  <c:v>23308437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8410549</c:v>
+                  <c:v>22744756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8606700</c:v>
+                  <c:v>22688269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8509144</c:v>
+                  <c:v>21777815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8450967</c:v>
+                  <c:v>21108435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7534965</c:v>
+                  <c:v>20328142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>422816</c:v>
+                  <c:v>19912605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$193:$C$193</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (one per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$194:$C$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>433261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3946132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21375081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23408735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22944601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22978033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21937636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21309372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20360588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19951110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$193:$D$193</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Ignoring warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$194:$A$203</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$194:$D$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>441486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2214387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9208511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23159548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22478310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22607832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21546222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20995312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20077306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19697269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9430,11 +10553,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31469126"/>
-        <c:axId val="21005508"/>
+        <c:axId val="6310371"/>
+        <c:axId val="67537668"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31469126"/>
+        <c:axId val="6310371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9468,7 +10591,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9490,7 +10613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21005508"/>
+        <c:crossAx val="67537668"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9498,7 +10621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21005508"/>
+        <c:axId val="67537668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +10664,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9563,1018 +10686,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31469126"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Filter - Stateless -s 1 -n 1  -b 10000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$428</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (Stateless)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$429:$A$438</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$429:$B$438</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8077970</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7825387</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7939100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8168414</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8175451</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7953574</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8122794</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8136413</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6298765</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>418992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="56941262"/>
-        <c:axId val="87640202"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="56941262"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Keys</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="87640202"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="87640202"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tuples/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56941262"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Map - Stateless -s 1 -k 500 -n 1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$455</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (Stateless)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$456:$A$458</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$456:$B$458</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4837020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7588236</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8436646</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="24903071"/>
-        <c:axId val="78655117"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="24903071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Batch length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78655117"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="78655117"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tuples/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24903071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Filter - Stateless -s 1  -k 500 -n 1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$478</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (Stateless)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$479:$A$481</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$479:$B$481</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2058779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7000820</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8168414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="44625804"/>
-        <c:axId val="95465271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="44625804"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Batch length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95465271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95465271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tuples/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44625804"/>
+        <c:crossAx val="6310371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10629,11 +10741,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>27000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
@@ -10643,8 +10755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5829480" y="908280"/>
-        <a:ext cx="5773320" cy="3241080"/>
+        <a:off x="5829480" y="908640"/>
+        <a:ext cx="5776560" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10663,9 +10775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10674,7 +10786,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5801040" y="8671320"/>
-        <a:ext cx="5773320" cy="3946320"/>
+        <a:ext cx="5776560" cy="3945960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10689,11 +10801,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>30960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>352440</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
@@ -10703,8 +10815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5833440" y="4514400"/>
-        <a:ext cx="5769000" cy="3686400"/>
+        <a:off x="5833440" y="4514760"/>
+        <a:ext cx="5772240" cy="3686040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10723,9 +10835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>376200</xdr:colOff>
+      <xdr:colOff>375840</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10734,7 +10846,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5852520" y="18005760"/>
-        <a:ext cx="5773320" cy="3714120"/>
+        <a:ext cx="5776560" cy="3713760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10753,9 +10865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10764,7 +10876,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5842440" y="12976200"/>
-        <a:ext cx="5759280" cy="3887640"/>
+        <a:ext cx="5762520" cy="3887280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10779,11 +10891,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>79560</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401400</xdr:colOff>
+      <xdr:colOff>401040</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
@@ -10793,8 +10905,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5882040" y="22433760"/>
-        <a:ext cx="5769000" cy="3675600"/>
+        <a:off x="5882040" y="22434120"/>
+        <a:ext cx="5772240" cy="3675240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10813,9 +10925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
+      <xdr:colOff>401400</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10824,7 +10936,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5872320" y="27577800"/>
-        <a:ext cx="5779080" cy="3241440"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10839,11 +10951,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9000</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>240</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
@@ -10853,8 +10965,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5811480" y="35802360"/>
-        <a:ext cx="5771160" cy="3558960"/>
+        <a:off x="5811480" y="35802720"/>
+        <a:ext cx="5774400" cy="3558600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10869,11 +10981,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>39960</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -10883,8 +10995,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5842440" y="31489200"/>
-        <a:ext cx="5759280" cy="3537720"/>
+        <a:off x="5842440" y="31489560"/>
+        <a:ext cx="5762520" cy="3537360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10899,11 +11011,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>50040</xdr:colOff>
       <xdr:row>243</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371880</xdr:colOff>
+      <xdr:colOff>371520</xdr:colOff>
       <xdr:row>267</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
@@ -10913,8 +11025,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5852520" y="39712680"/>
-        <a:ext cx="5769000" cy="4027680"/>
+        <a:off x="5852520" y="39713040"/>
+        <a:ext cx="5772240" cy="4027320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10929,11 +11041,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>62640</xdr:colOff>
       <xdr:row>276</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>387000</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>298</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -10943,8 +11055,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5865120" y="45126000"/>
-        <a:ext cx="5771520" cy="3661920"/>
+        <a:off x="5865120" y="45126360"/>
+        <a:ext cx="5774760" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10963,9 +11075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342360</xdr:colOff>
+      <xdr:colOff>342000</xdr:colOff>
       <xdr:row>328</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10974,7 +11086,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5823000" y="49743720"/>
-        <a:ext cx="5769000" cy="3844080"/>
+        <a:ext cx="5772240" cy="3843720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10989,11 +11101,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>36720</xdr:colOff>
       <xdr:row>337</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>352440</xdr:colOff>
       <xdr:row>360</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
@@ -11003,8 +11115,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5839200" y="55113840"/>
-        <a:ext cx="5763240" cy="3751200"/>
+        <a:off x="5839200" y="55114200"/>
+        <a:ext cx="5766480" cy="3750840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11019,11 +11131,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>59760</xdr:colOff>
       <xdr:row>366</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381600</xdr:colOff>
+      <xdr:colOff>381240</xdr:colOff>
       <xdr:row>390</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
@@ -11033,8 +11145,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5862240" y="59851440"/>
-        <a:ext cx="5769000" cy="3890880"/>
+        <a:off x="5862240" y="59851800"/>
+        <a:ext cx="5772240" cy="3890520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11046,16 +11158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1171800</xdr:colOff>
-      <xdr:row>400</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53640</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>360000</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11063,8 +11175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3259440" y="65778840"/>
-        <a:ext cx="5760720" cy="3241800"/>
+        <a:off x="5856120" y="65986560"/>
+        <a:ext cx="5757120" cy="3738240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11076,16 +11188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1092960</xdr:colOff>
-      <xdr:row>424</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43560</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
-      <xdr:row>444</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350280</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11093,8 +11205,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3180600" y="69632280"/>
-        <a:ext cx="5761080" cy="3232080"/>
+        <a:off x="5846040" y="71930880"/>
+        <a:ext cx="5757480" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11107,15 +11219,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
-      <xdr:row>451</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:colOff>75600</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>654480</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:colOff>633960</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11123,42 +11235,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3430440" y="74059560"/>
-        <a:ext cx="5760720" cy="3241800"/>
+        <a:off x="3418200" y="75787560"/>
+        <a:ext cx="5752440" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
-      <xdr:row>475</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
-      <xdr:row>495</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3447720" y="77881680"/>
-        <a:ext cx="5752800" cy="3241440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11172,13 +11254,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G481"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H395" activeCellId="0" sqref="H395"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A414" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G431" activeCellId="0" sqref="G431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
@@ -13469,261 +13551,263 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>18</v>
+      <c r="A404" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B404" s="4" t="n">
+        <v>8523685</v>
+      </c>
+      <c r="C404" s="4" t="n">
+        <v>8620809</v>
+      </c>
+      <c r="D404" s="4" t="n">
+        <v>8427848</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B405" s="4" t="n">
-        <v>8113731</v>
+        <v>8299342</v>
+      </c>
+      <c r="C405" s="4" t="n">
+        <v>8510979</v>
+      </c>
+      <c r="D405" s="4" t="n">
+        <v>8307281</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B406" s="4" t="n">
-        <v>8308307</v>
+        <v>8462811</v>
+      </c>
+      <c r="C406" s="4" t="n">
+        <v>7379101</v>
+      </c>
+      <c r="D406" s="4" t="n">
+        <v>8535448</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B407" s="4" t="n">
-        <v>8448787</v>
+        <v>8430318</v>
+      </c>
+      <c r="C407" s="4" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D407" s="4" t="n">
+        <v>8574062</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="B408" s="4" t="n">
-        <v>8436646</v>
+        <v>8306032</v>
+      </c>
+      <c r="C408" s="4" t="n">
+        <v>4239702</v>
+      </c>
+      <c r="D408" s="4" t="n">
+        <v>8520762</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="B409" s="4" t="n">
-        <v>8410549</v>
+        <v>8445980</v>
+      </c>
+      <c r="C409" s="4" t="n">
+        <v>7886717</v>
+      </c>
+      <c r="D409" s="4" t="n">
+        <v>8825226</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B410" s="4" t="n">
-        <v>8606700</v>
+        <v>7285115</v>
+      </c>
+      <c r="C410" s="4" t="n">
+        <v>5011908</v>
+      </c>
+      <c r="D410" s="4" t="n">
+        <v>8175625</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="B411" s="4" t="n">
-        <v>8509144</v>
+        <v>8520147</v>
+      </c>
+      <c r="C411" s="4" t="n">
+        <v>3063936</v>
+      </c>
+      <c r="D411" s="4" t="n">
+        <v>8509028</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="B412" s="4" t="n">
-        <v>8450967</v>
+        <v>7607754</v>
+      </c>
+      <c r="C412" s="4" t="n">
+        <v>1726115</v>
+      </c>
+      <c r="D412" s="4" t="n">
+        <v>7493692</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="B413" s="4" t="n">
-        <v>7534965</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="4" t="n">
+        <v>423328</v>
+      </c>
+      <c r="C413" s="4" t="n">
+        <v>72093</v>
+      </c>
+      <c r="D413" s="4" t="n">
+        <v>422546</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="1"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B440" s="4" t="n">
+        <v>4721917</v>
+      </c>
+      <c r="C440" s="4" t="n">
+        <v>4574673</v>
+      </c>
+      <c r="D440" s="4" t="n">
+        <v>5341444</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B441" s="4" t="n">
+        <v>7799193</v>
+      </c>
+      <c r="C441" s="4" t="n">
+        <v>7911064</v>
+      </c>
+      <c r="D441" s="4" t="n">
+        <v>8310345</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B414" s="4" t="n">
-        <v>422816</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B429" s="4" t="n">
-        <v>8077970</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B430" s="4" t="n">
-        <v>7825387</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B431" s="4" t="n">
-        <v>7939100</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="B432" s="4" t="n">
-        <v>8168414</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="4" t="n">
-        <v>960</v>
-      </c>
-      <c r="B433" s="4" t="n">
-        <v>8175451</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="4" t="n">
+      <c r="B442" s="4" t="n">
+        <v>8430318</v>
+      </c>
+      <c r="C442" s="4" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D442" s="4" t="n">
+        <v>8574062</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="B434" s="4" t="n">
-        <v>7953574</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B435" s="4" t="n">
-        <v>8122794</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B436" s="4" t="n">
-        <v>8136413</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="B437" s="4" t="n">
-        <v>6298765</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="4" t="n">
+      <c r="B464" s="4" t="n">
+        <v>2058779</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B465" s="4" t="n">
+        <v>7000820</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B438" s="4" t="n">
-        <v>418992</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
-      <c r="E451" s="1"/>
-    </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B456" s="4" t="n">
-        <v>4837020</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B457" s="4" t="n">
-        <v>7588236</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B458" s="4" t="n">
-        <v>8436646</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B478" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B479" s="4" t="n">
-        <v>2058779</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B480" s="4" t="n">
-        <v>7000820</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B481" s="4" t="n">
+      <c r="B466" s="4" t="n">
         <v>8168414</v>
       </c>
     </row>
@@ -13741,8 +13825,8 @@
     <mergeCell ref="A336:E336"/>
     <mergeCell ref="A400:E400"/>
     <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A451:E451"/>
-    <mergeCell ref="A452:E452"/>
+    <mergeCell ref="A435:E435"/>
+    <mergeCell ref="A436:E436"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13753,4 +13837,274 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4721917</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4574673</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5341444</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>7799193</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7911064</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8310345</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8430318</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8574062</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A461" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A479" activeCellId="0" sqref="A479"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>8523685</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>8620809</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8427848</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8299342</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8510979</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8307281</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8462811</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7379101</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8535448</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8430318</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>8574062</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8306032</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4239702</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8520762</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8445980</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7886717</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8825226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7285115</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5011908</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8175625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8520147</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3063936</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8509028</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7607754</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1726115</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7493692</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>423328</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>72093</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>422546</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/GPU_Tests/new_tests/results/results.xlsx
+++ b/src/GPU_Tests/new_tests/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="27">
   <si>
     <t xml:space="preserve">Configuration: dataset with 80000 tuples, -s 1 -b 10000 -n 1</t>
   </si>
@@ -76,16 +76,16 @@
     <t xml:space="preserve">Stateless versions, for reference</t>
   </si>
   <si>
+    <t xml:space="preserve">Map (One per warp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map (No warps)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filter (One per warp)</t>
   </si>
   <si>
     <t xml:space="preserve">Filter (No warps)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map (One per warp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map (No warps)</t>
   </si>
   <si>
     <t xml:space="preserve">Filter (Stateless)</t>
@@ -337,7 +337,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart192.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -800,11 +800,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="99033156"/>
-        <c:axId val="47646591"/>
+        <c:axId val="76909327"/>
+        <c:axId val="24986757"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99033156"/>
+        <c:axId val="76909327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +832,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47646591"/>
+        <c:crossAx val="24986757"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -840,7 +840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47646591"/>
+        <c:axId val="24986757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99033156"/>
+        <c:crossAx val="76909327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -953,7 +953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart193.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1416,11 +1416,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="52764598"/>
-        <c:axId val="50608338"/>
+        <c:axId val="10640491"/>
+        <c:axId val="59876815"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52764598"/>
+        <c:axId val="10640491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50608338"/>
+        <c:crossAx val="59876815"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50608338"/>
+        <c:axId val="59876815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52764598"/>
+        <c:crossAx val="10640491"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1597,7 +1597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart194.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2060,11 +2060,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98716927"/>
-        <c:axId val="34582611"/>
+        <c:axId val="95396570"/>
+        <c:axId val="28256490"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98716927"/>
+        <c:axId val="95396570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2120,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34582611"/>
+        <c:crossAx val="28256490"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34582611"/>
+        <c:axId val="28256490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98716927"/>
+        <c:crossAx val="95396570"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2241,7 +2241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart195.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2704,11 +2704,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89047803"/>
-        <c:axId val="32791362"/>
+        <c:axId val="98515833"/>
+        <c:axId val="5309771"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89047803"/>
+        <c:axId val="98515833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32791362"/>
+        <c:crossAx val="5309771"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32791362"/>
+        <c:axId val="5309771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89047803"/>
+        <c:crossAx val="98515833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2885,7 +2885,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart196.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3348,11 +3348,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24807765"/>
-        <c:axId val="10537219"/>
+        <c:axId val="3344976"/>
+        <c:axId val="23453410"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24807765"/>
+        <c:axId val="3344976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +3408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10537219"/>
+        <c:crossAx val="23453410"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3416,7 +3416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10537219"/>
+        <c:axId val="23453410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3481,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24807765"/>
+        <c:crossAx val="3344976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3529,7 +3529,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart197.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3992,11 +3992,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11046878"/>
-        <c:axId val="93722442"/>
+        <c:axId val="13018618"/>
+        <c:axId val="41495993"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11046878"/>
+        <c:axId val="13018618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,7 +4052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93722442"/>
+        <c:crossAx val="41495993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4060,7 +4060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93722442"/>
+        <c:axId val="41495993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4125,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11046878"/>
+        <c:crossAx val="13018618"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4173,7 +4173,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart198.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4644,11 +4644,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14120746"/>
-        <c:axId val="54038841"/>
+        <c:axId val="93697213"/>
+        <c:axId val="38592732"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14120746"/>
+        <c:axId val="93697213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,7 +4704,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54038841"/>
+        <c:crossAx val="38592732"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4712,7 +4712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54038841"/>
+        <c:axId val="38592732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +4777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14120746"/>
+        <c:crossAx val="93697213"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4825,7 +4825,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart199.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5288,11 +5288,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="12516580"/>
-        <c:axId val="47076282"/>
+        <c:axId val="98359942"/>
+        <c:axId val="87099979"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12516580"/>
+        <c:axId val="98359942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5348,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47076282"/>
+        <c:crossAx val="87099979"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5356,7 +5356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47076282"/>
+        <c:axId val="87099979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5421,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12516580"/>
+        <c:crossAx val="98359942"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5469,7 +5469,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart200.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5932,11 +5932,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82909767"/>
-        <c:axId val="45244242"/>
+        <c:axId val="87175554"/>
+        <c:axId val="20240216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82909767"/>
+        <c:axId val="87175554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,7 +5992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45244242"/>
+        <c:crossAx val="20240216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6000,7 +6000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45244242"/>
+        <c:axId val="20240216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,7 +6065,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82909767"/>
+        <c:crossAx val="87175554"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6113,7 +6113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart201.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6576,11 +6576,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43041343"/>
-        <c:axId val="60141743"/>
+        <c:axId val="9657386"/>
+        <c:axId val="63929509"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43041343"/>
+        <c:axId val="9657386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,7 +6636,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60141743"/>
+        <c:crossAx val="63929509"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6644,7 +6644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60141743"/>
+        <c:axId val="63929509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6709,7 +6709,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43041343"/>
+        <c:crossAx val="9657386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6757,7 +6757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart202.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7220,11 +7220,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54881229"/>
-        <c:axId val="83055389"/>
+        <c:axId val="47478952"/>
+        <c:axId val="83314529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54881229"/>
+        <c:axId val="47478952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7280,7 +7280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83055389"/>
+        <c:crossAx val="83314529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7288,7 +7288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83055389"/>
+        <c:axId val="83314529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7353,7 +7353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54881229"/>
+        <c:crossAx val="47478952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7401,7 +7401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart203.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7864,11 +7864,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="77989261"/>
-        <c:axId val="89004647"/>
+        <c:axId val="80742791"/>
+        <c:axId val="48645316"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77989261"/>
+        <c:axId val="80742791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7924,7 +7924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89004647"/>
+        <c:crossAx val="48645316"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7932,7 +7932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89004647"/>
+        <c:axId val="48645316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,7 +7997,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77989261"/>
+        <c:crossAx val="80742791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8045,7 +8045,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart204.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8472,11 +8472,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92140519"/>
-        <c:axId val="32288172"/>
+        <c:axId val="23818007"/>
+        <c:axId val="59159737"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92140519"/>
+        <c:axId val="23818007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8532,7 +8532,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32288172"/>
+        <c:crossAx val="59159737"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8540,7 +8540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32288172"/>
+        <c:axId val="59159737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,7 +8605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92140519"/>
+        <c:crossAx val="23818007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8653,7 +8653,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart205.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9080,11 +9080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16284394"/>
-        <c:axId val="45474897"/>
+        <c:axId val="26546002"/>
+        <c:axId val="89762191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16284394"/>
+        <c:axId val="26546002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9140,7 +9140,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45474897"/>
+        <c:crossAx val="89762191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9148,7 +9148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45474897"/>
+        <c:axId val="89762191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9213,7 +9213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16284394"/>
+        <c:crossAx val="26546002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9261,7 +9261,1289 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart206.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Filter - Pianosa - Stateless -s 1 -b 10000 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$429:$B$429</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$430:$A$439</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$430:$B$439</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15815195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15833209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15855323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15815164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15873735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15845531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15840830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15831120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16111410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1814823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$429:$C$429</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$430:$A$439</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$430:$C$439</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15843303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15739485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15880016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15906418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15973308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15772257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16029924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16050242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12315871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>453745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$429:$D$429</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$430:$A$439</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$430:$D$439</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15730278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15730682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15772390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15776215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15892454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15901946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15909081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15885674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16003775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2072374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="40946632"/>
+        <c:axId val="50985703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40946632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Keys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50985703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50985703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40946632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart207.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pianosa - Map - Stateless -s 1 -b 10000 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$404:$B$404</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$405:$A$414</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$405:$B$414</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15766020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15826778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15880321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15733101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15796161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15804109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15863190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15809460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15878028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1834322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$404:$C$404</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$405:$A$414</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$405:$C$414</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15819864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15817716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15757758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15961366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15923072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15813043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15817506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15924472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13330277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>459260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$404:$D$404</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$405:$A$414</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$405:$D$414</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15941045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15742627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15829583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15803647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15801382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15804536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15812708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15829634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15860098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2081052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="39899047"/>
+        <c:axId val="13511195"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39899047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Keys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13511195"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13511195"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39899047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart208.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9304,7 +10586,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$447:$B$447</c:f>
+              <c:f>Foglio1!$B$452:$B$452</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9361,7 +10643,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$448:$A$457</c:f>
+              <c:f>Foglio1!$A$453:$A$462</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9399,7 +10681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$448:$B$457</c:f>
+              <c:f>Foglio1!$B$453:$B$462</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9443,7 +10725,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$447:$C$447</c:f>
+              <c:f>Foglio1!$C$452:$C$452</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9500,7 +10782,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$448:$A$457</c:f>
+              <c:f>Foglio1!$A$453:$A$462</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9538,7 +10820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$448:$C$457</c:f>
+              <c:f>Foglio1!$C$453:$C$462</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9582,7 +10864,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$447:$D$447</c:f>
+              <c:f>Foglio1!$D$452:$D$452</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9639,7 +10921,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$448:$A$457</c:f>
+              <c:f>Foglio1!$A$453:$A$462</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9677,7 +10959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$448:$D$457</c:f>
+              <c:f>Foglio1!$D$453:$D$462</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9724,11 +11006,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62896077"/>
-        <c:axId val="77098553"/>
+        <c:axId val="22089591"/>
+        <c:axId val="76916342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62896077"/>
+        <c:axId val="22089591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,7 +11066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77098553"/>
+        <c:crossAx val="76916342"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9792,7 +11074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77098553"/>
+        <c:axId val="76916342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9857,7 +11139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62896077"/>
+        <c:crossAx val="22089591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9905,7 +11187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9948,7 +11230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$474:$B$474</c:f>
+              <c:f>Foglio1!$B$479:$B$479</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10005,7 +11287,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$475:$A$484</c:f>
+              <c:f>Foglio1!$A$480:$A$489</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -10043,7 +11325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$475:$B$484</c:f>
+              <c:f>Foglio1!$B$480:$B$489</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10087,7 +11369,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$474:$C$474</c:f>
+              <c:f>Foglio1!$C$479:$C$479</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10144,7 +11426,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$475:$A$484</c:f>
+              <c:f>Foglio1!$A$480:$A$489</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -10182,7 +11464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$475:$C$484</c:f>
+              <c:f>Foglio1!$C$480:$C$489</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10226,7 +11508,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$474:$D$474</c:f>
+              <c:f>Foglio1!$D$479:$D$479</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10283,7 +11565,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$475:$A$484</c:f>
+              <c:f>Foglio1!$A$480:$A$489</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -10321,7 +11603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$475:$D$484</c:f>
+              <c:f>Foglio1!$D$480:$D$489</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10368,11 +11650,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="625132"/>
-        <c:axId val="16094456"/>
+        <c:axId val="82306777"/>
+        <c:axId val="12926552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="625132"/>
+        <c:axId val="82306777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10428,7 +11710,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16094456"/>
+        <c:crossAx val="12926552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10436,7 +11718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16094456"/>
+        <c:axId val="12926552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10501,7 +11783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625132"/>
+        <c:crossAx val="82306777"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10549,7 +11831,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10569,7 +11851,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Pianosa - Stateless -s 1 -b 10000 -n 1</a:t>
+              <a:t>Pianosa - Map -Stateless -s 1 -k 500 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10592,11 +11874,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$422:$B$422</c:f>
+              <c:f>Foglio1!$B$510:$B$510</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
+                  <c:v>Map (Stateless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10648,37 +11930,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$423:$A$432</c:f>
+              <c:f>Foglio1!$A$511:$A$513</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
@@ -10686,39 +11947,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$423:$B$432</c:f>
+              <c:f>Foglio1!$B$511:$B$513</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>15815195</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13944417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15833209</c:v>
+                  <c:v>15629456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15855323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15815164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15873735</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15845531</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15840830</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15831120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16111410</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1814823</c:v>
+                  <c:v>15770825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10730,11 +11970,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$422:$C$422</c:f>
+              <c:f>Foglio1!$C$510:$C$510</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (One per warp)</c:v>
+                  <c:v>Map (One per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10786,37 +12026,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$423:$A$432</c:f>
+              <c:f>Foglio1!$A$511:$A$513</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
@@ -10824,39 +12043,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$423:$C$432</c:f>
+              <c:f>Foglio1!$C$511:$C$513</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>15843303</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13779453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15739485</c:v>
+                  <c:v>15692059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15880016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15906418</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15973308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15772257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16029924</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16050242</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12315871</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>453745</c:v>
+                  <c:v>15799296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,11 +12066,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$422:$D$422</c:f>
+              <c:f>Foglio1!$D$510:$D$510</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (No warps)</c:v>
+                  <c:v>Map (No warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10924,37 +12122,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$423:$A$432</c:f>
+              <c:f>Foglio1!$A$511:$A$513</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
@@ -10962,39 +12139,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$423:$D$432</c:f>
+              <c:f>Foglio1!$D$511:$D$513</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>15730278</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13928726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15730682</c:v>
+                  <c:v>15685792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15772390</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15776215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15892454</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15901946</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15909081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15885674</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16003775</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2072374</c:v>
+                  <c:v>15950752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11009,11 +12165,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98302089"/>
-        <c:axId val="54253847"/>
+        <c:axId val="10627669"/>
+        <c:axId val="69350343"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98302089"/>
+        <c:axId val="10627669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +12190,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Keys</a:t>
+                  <a:t>Batch length</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11069,7 +12225,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54253847"/>
+        <c:crossAx val="69350343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11077,7 +12233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54253847"/>
+        <c:axId val="69350343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11142,7 +12298,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98302089"/>
+        <c:crossAx val="10627669"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11190,7 +12346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11210,7 +12366,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Stateless - Nano -s 1 -k 500 -n 1</a:t>
+              <a:t>Pianosa - Filter - Stateless -s 1 -k 500 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11233,11 +12389,1556 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$554:$B$554</c:f>
+              <c:f>Foglio1!$B$535:$B$535</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Filter (Adaptive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$536:$A$538</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$536:$B$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14249680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15735220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15815164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$535:$C$535</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$536:$A$538</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$536:$C$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13276732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15666936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15906418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$535:$D$535</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$536:$A$538</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$536:$D$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13471252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15669721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15776215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="93184819"/>
+        <c:axId val="31557385"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93184819"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31557385"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31557385"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93184819"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Nano - Map - Stateless -s 1 -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$559:$B$559</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Map (Stateless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$560:$A$562</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$560:$B$562</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4721917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7799193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8430318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$559:$C$559</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$560:$A$562</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$560:$C$562</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4574673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7911064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8165479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$559:$D$559</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$560:$A$562</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$560:$D$562</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5341444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8310345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8574062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="95457752"/>
+        <c:axId val="74110250"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95457752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74110250"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74110250"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95457752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Nano - Filter - Stateless -s 1 -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$586:$B$586</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (Stateless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$587:$A$589</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$587:$B$589</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2046796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6974741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7900302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$586:$C$586</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (One per warp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$587:$A$589</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$587:$C$589</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1841459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7012310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7901494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$586:$D$586</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter (No warps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$587:$A$589</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$587:$D$589</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2111046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7482042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8121770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="99973640"/>
+        <c:axId val="4294751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99973640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Batch length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4294751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4294751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tuples/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99973640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Map - Stateless - Nano -b 10000 -k 500 -n 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$671:$B$671</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11290,35 +13991,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$555:$A$557</c:f>
+              <c:f>Foglio1!$A$670:$A$671</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>Sources (-s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$555:$B$557</c:f>
+              <c:f>Foglio1!$B$672:$B$673</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4721917</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8430318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7799193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8430318</c:v>
+                  <c:v>15315367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11330,7 +14025,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$554:$C$554</c:f>
+              <c:f>Foglio1!$C$671:$C$671</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11387,35 +14082,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$555:$A$557</c:f>
+              <c:f>Foglio1!$A$670:$A$671</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>Sources (-s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$555:$C$557</c:f>
+              <c:f>Foglio1!$C$672:$C$673</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4574673</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8165479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7911064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8165479</c:v>
+                  <c:v>11087785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11427,7 +14116,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$554:$D$554</c:f>
+              <c:f>Foglio1!$D$671:$D$671</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11484,35 +14173,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$555:$A$557</c:f>
+              <c:f>Foglio1!$A$670:$A$671</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>Sources (-s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$555:$D$557</c:f>
+              <c:f>Foglio1!$D$672:$D$673</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5341444</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8574062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8310345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8574062</c:v>
+                  <c:v>15257164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11527,11 +14210,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94398673"/>
-        <c:axId val="52245281"/>
+        <c:axId val="31272998"/>
+        <c:axId val="52131887"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94398673"/>
+        <c:axId val="31272998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11552,7 +14235,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Batch size</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11587,7 +14270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52245281"/>
+        <c:crossAx val="52131887"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11595,7 +14278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52245281"/>
+        <c:axId val="52131887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11660,7 +14343,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94398673"/>
+        <c:crossAx val="31272998"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11708,7 +14391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11728,7 +14411,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Filter - Nano - Stateless -s 1 -k 500 -n 1</a:t>
+              <a:t>Filter - Nano - Stateless -b 10000 -k 500 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11751,11 +14434,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$581:$B$581</c:f>
+              <c:f>Foglio1!$B$698:$B$698</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (Stateless)</c:v>
+                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11808,35 +14491,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$582:$A$584</c:f>
+              <c:f>Foglio1!$A$699:$A$700</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$582:$B$584</c:f>
+              <c:f>Foglio1!$B$699:$B$700</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2046796</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7900302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6974741</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7900302</c:v>
+                  <c:v>12166886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11848,7 +14525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$581:$C$581</c:f>
+              <c:f>Foglio1!$C$698:$C$698</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11905,35 +14582,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$582:$A$584</c:f>
+              <c:f>Foglio1!$A$699:$A$700</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$582:$C$584</c:f>
+              <c:f>Foglio1!$C$699:$C$700</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1841459</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7901494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7012310</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7901494</c:v>
+                  <c:v>7875166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11945,7 +14616,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$581:$D$581</c:f>
+              <c:f>Foglio1!$D$698:$D$698</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12002,35 +14673,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$582:$A$584</c:f>
+              <c:f>Foglio1!$A$699:$A$700</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$582:$D$584</c:f>
+              <c:f>Foglio1!$D$699:$D$700</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2111046</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8121770</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7482042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8121770</c:v>
+                  <c:v>11684490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12045,11 +14710,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="26861806"/>
-        <c:axId val="68235386"/>
+        <c:axId val="21933628"/>
+        <c:axId val="61429661"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26861806"/>
+        <c:axId val="21933628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12070,7 +14735,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Batch size</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12105,7 +14770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68235386"/>
+        <c:crossAx val="61429661"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12113,7 +14778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68235386"/>
+        <c:axId val="61429661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12178,7 +14843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26861806"/>
+        <c:crossAx val="21933628"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12226,7 +14891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12246,7 +14911,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Pianosa - Filter - Stateless -k 500 -s 1 -n 1</a:t>
+              <a:t>Pianosa - Filter - Stateless -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12269,7 +14934,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$526:$B$526</c:f>
+              <c:f>Foglio1!$B$644:$B$644</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12325,35 +14990,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$527:$A$529</c:f>
+              <c:f>Foglio1!$A$645:$A$652</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$527:$B$529</c:f>
+              <c:f>Foglio1!$B$645:$B$652</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>14249680</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15815164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15735220</c:v>
+                  <c:v>32070393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15815164</c:v>
+                  <c:v>64545146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96739731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99238098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98434105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98680734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96554241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12365,7 +15060,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$526:$C$526</c:f>
+              <c:f>Foglio1!$C$644:$C$644</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12421,35 +15116,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$527:$A$529</c:f>
+              <c:f>Foglio1!$A$645:$A$652</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$527:$C$529</c:f>
+              <c:f>Foglio1!$C$645:$C$652</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>13276732</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15906418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15666936</c:v>
+                  <c:v>32083159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15906418</c:v>
+                  <c:v>64395886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75245147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74143134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74123596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74702844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73956939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12461,7 +15186,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$526:$D$526</c:f>
+              <c:f>Foglio1!$D$644:$D$644</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12517,35 +15242,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$527:$A$529</c:f>
+              <c:f>Foglio1!$A$645:$A$652</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$527:$D$529</c:f>
+              <c:f>Foglio1!$D$645:$D$652</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>13471252</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15776215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15669721</c:v>
+                  <c:v>31558376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15776215</c:v>
+                  <c:v>63903539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95881741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100732251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100584544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100498977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99561198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12560,11 +15315,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58046843"/>
-        <c:axId val="71321346"/>
+        <c:axId val="76166149"/>
+        <c:axId val="94313893"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58046843"/>
+        <c:axId val="76166149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12585,7 +15340,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Batch length</a:t>
+                  <a:t>Sources</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12620,7 +15375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71321346"/>
+        <c:crossAx val="94313893"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12628,7 +15383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71321346"/>
+        <c:axId val="94313893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12693,7 +15448,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58046843"/>
+        <c:crossAx val="76166149"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12741,7 +15496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12761,7 +15516,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Map - Stateless - Nano -b 10000 -k 500 -n 1</a:t>
+              <a:t>Pianosa - Map -Staeless -k 500 -b 10000 -n 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12784,1011 +15539,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$650:$B$650</c:f>
+              <c:f>Foglio1!$B$615:$B$615</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Map (Adaptive)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$651:$A$652</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$651:$B$652</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8430318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15315367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$650:$C$650</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (One per warp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$651:$A$652</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$651:$C$652</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8165479</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11087785</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$650:$D$650</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map (No warps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$651:$A$652</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$651:$D$652</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8574062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15257164</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="28457212"/>
-        <c:axId val="55389521"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="28457212"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Sources</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55389521"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="55389521"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tuples/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28457212"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Filter - Nano - Stateless -b 10000 -k 500 -n 1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$677:$B$677</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$678:$A$679</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$678:$B$679</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7900302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12166886</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$677:$C$677</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (One per warp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$678:$A$679</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$678:$C$679</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7901494</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7875166</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$677:$D$677</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (No warps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$678:$A$679</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$678:$D$679</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8121770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11684490</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="17804018"/>
-        <c:axId val="15388283"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="17804018"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Sources</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15388283"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="15388283"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tuples/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17804018"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Pianosa - Filter - Stateless -k 500 -b 10000 -n 1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$B$623:$B$623</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filter (Adaptive)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13840,7 +15595,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$624:$A$631</c:f>
+              <c:f>Foglio1!$A$616:$A$623</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13872,33 +15627,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$624:$B$631</c:f>
+              <c:f>Foglio1!$B$616:$B$623</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15815164</c:v>
+                  <c:v>15794892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32070393</c:v>
+                  <c:v>31607677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64545146</c:v>
+                  <c:v>64059152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96739731</c:v>
+                  <c:v>95841456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99238098</c:v>
+                  <c:v>127697402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98434105</c:v>
+                  <c:v>147630180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98680734</c:v>
+                  <c:v>147664162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96554241</c:v>
+                  <c:v>147729927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13910,11 +15665,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$623:$C$623</c:f>
+              <c:f>Foglio1!$C$615:$C$615</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (One per warp)</c:v>
+                  <c:v>Map (One per warp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13966,7 +15721,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$624:$A$631</c:f>
+              <c:f>Foglio1!$A$616:$A$623</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13998,33 +15753,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$624:$C$631</c:f>
+              <c:f>Foglio1!$C$616:$C$623</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15906418</c:v>
+                  <c:v>15905959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32083159</c:v>
+                  <c:v>31568120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64395886</c:v>
+                  <c:v>63977237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75245147</c:v>
+                  <c:v>95782536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74143134</c:v>
+                  <c:v>126418688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74123596</c:v>
+                  <c:v>126210740</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74702844</c:v>
+                  <c:v>126100248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73956939</c:v>
+                  <c:v>126744909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14036,11 +15791,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$623:$D$623</c:f>
+              <c:f>Foglio1!$D$615:$D$615</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filter (No warps)</c:v>
+                  <c:v>Map (No warps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14092,7 +15847,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$624:$A$631</c:f>
+              <c:f>Foglio1!$A$616:$A$623</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -14124,33 +15879,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$624:$D$631</c:f>
+              <c:f>Foglio1!$D$616:$D$623</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15776215</c:v>
+                  <c:v>15952164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31558376</c:v>
+                  <c:v>31550530</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63903539</c:v>
+                  <c:v>64164930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95881741</c:v>
+                  <c:v>96077155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100732251</c:v>
+                  <c:v>127834540</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100584544</c:v>
+                  <c:v>147065085</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100498977</c:v>
+                  <c:v>147558662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99561198</c:v>
+                  <c:v>147725699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14165,11 +15920,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25283247"/>
-        <c:axId val="42097950"/>
+        <c:axId val="53041272"/>
+        <c:axId val="41883372"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25283247"/>
+        <c:axId val="53041272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14225,7 +15980,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42097950"/>
+        <c:crossAx val="41883372"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14233,7 +15988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42097950"/>
+        <c:axId val="41883372"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14298,7 +16053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25283247"/>
+        <c:crossAx val="53041272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14771,15 +16526,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
-      <xdr:row>446</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>469</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>356760</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14787,8 +16542,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337080" y="73139400"/>
-        <a:ext cx="5760720" cy="3737880"/>
+        <a:off x="6333120" y="69981480"/>
+        <a:ext cx="5761440" cy="3539160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14800,16 +16555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
-      <xdr:row>473</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
-      <xdr:row>495</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>337320</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14817,8 +16572,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6276240" y="77525640"/>
-        <a:ext cx="5763240" cy="3626280"/>
+        <a:off x="6313680" y="65975760"/>
+        <a:ext cx="5761440" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14831,15 +16586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>421</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:colOff>119520</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
-      <xdr:row>443</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>425880</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14847,8 +16602,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6372720" y="69083280"/>
-        <a:ext cx="5761440" cy="3539160"/>
+        <a:off x="6402600" y="74008080"/>
+        <a:ext cx="5761080" cy="3738960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14861,15 +16616,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
-      <xdr:row>553</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:colOff>62280</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
-      <xdr:row>577</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14877,8 +16632,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6327000" y="90626400"/>
-        <a:ext cx="5761080" cy="3826440"/>
+        <a:off x="6345360" y="78319080"/>
+        <a:ext cx="5763240" cy="3626280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14891,15 +16646,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
-      <xdr:row>580</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
-      <xdr:row>600</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:colOff>337320</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14907,8 +16662,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6327000" y="94996440"/>
-        <a:ext cx="5761080" cy="3241080"/>
+        <a:off x="6313680" y="83426760"/>
+        <a:ext cx="5761440" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14921,15 +16676,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
-      <xdr:row>525</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
-      <xdr:row>545</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:colOff>327240</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14937,8 +16692,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6372720" y="86055480"/>
-        <a:ext cx="5761440" cy="3241440"/>
+        <a:off x="6303960" y="87576480"/>
+        <a:ext cx="5761080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14951,15 +16706,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>649</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:colOff>99720</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
-      <xdr:row>671</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:colOff>406080</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14967,8 +16722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6356520" y="106250400"/>
-        <a:ext cx="5761080" cy="3585600"/>
+        <a:off x="6382800" y="91429920"/>
+        <a:ext cx="5761080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14981,15 +16736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>676</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:colOff>40320</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>375120</xdr:colOff>
-      <xdr:row>696</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>347040</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14997,8 +16752,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6349680" y="110633400"/>
-        <a:ext cx="5763240" cy="3239280"/>
+        <a:off x="6323400" y="95818680"/>
+        <a:ext cx="5761440" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15011,15 +16766,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
-      <xdr:row>622</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:colOff>73440</xdr:colOff>
+      <xdr:row>670</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
-      <xdr:row>642</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>379800</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15027,12 +16782,102 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6382800" y="101861640"/>
+        <a:off x="6356520" y="109664280"/>
+        <a:ext cx="5761080" cy="3585600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>375120</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6349680" y="114047280"/>
+        <a:ext cx="5763240" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99720</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406080</xdr:colOff>
+      <xdr:row>663</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6382800" y="105275520"/>
         <a:ext cx="5761080" cy="3232080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40320</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347040</xdr:colOff>
+      <xdr:row>634</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6323400" y="100571040"/>
+        <a:ext cx="5761440" cy="3231720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15046,10 +16891,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G679"/>
+  <dimension ref="A1:G700"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A622" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C635" activeCellId="0" sqref="C635"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A667" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A615" activeCellId="0" sqref="A615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17343,879 +19188,1245 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="4" t="s">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B404" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B405" s="4" t="n">
+        <v>15766020</v>
+      </c>
+      <c r="C405" s="4" t="n">
+        <v>15819864</v>
+      </c>
+      <c r="D405" s="4" t="n">
+        <v>15941045</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B406" s="4" t="n">
+        <v>15826778</v>
+      </c>
+      <c r="C406" s="4" t="n">
+        <v>15817716</v>
+      </c>
+      <c r="D406" s="4" t="n">
+        <v>15742627</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B407" s="4" t="n">
+        <v>15880321</v>
+      </c>
+      <c r="C407" s="4" t="n">
+        <v>15757758</v>
+      </c>
+      <c r="D407" s="4" t="n">
+        <v>15829583</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="B408" s="4" t="n">
+        <v>15733101</v>
+      </c>
+      <c r="C408" s="4" t="n">
+        <v>15961366</v>
+      </c>
+      <c r="D408" s="4" t="n">
+        <v>15803647</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B409" s="4" t="n">
+        <v>15796161</v>
+      </c>
+      <c r="C409" s="4" t="n">
+        <v>15923072</v>
+      </c>
+      <c r="D409" s="4" t="n">
+        <v>15801382</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B410" s="4" t="n">
+        <v>15804109</v>
+      </c>
+      <c r="C410" s="4" t="n">
+        <v>15813043</v>
+      </c>
+      <c r="D410" s="4" t="n">
+        <v>15804536</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B411" s="4" t="n">
+        <v>15863190</v>
+      </c>
+      <c r="C411" s="4" t="n">
+        <v>15817506</v>
+      </c>
+      <c r="D411" s="4" t="n">
+        <v>15812708</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B412" s="4" t="n">
+        <v>15809460</v>
+      </c>
+      <c r="C412" s="4" t="n">
+        <v>15924472</v>
+      </c>
+      <c r="D412" s="4" t="n">
+        <v>15829634</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B413" s="4" t="n">
+        <v>15878028</v>
+      </c>
+      <c r="C413" s="4" t="n">
+        <v>13330277</v>
+      </c>
+      <c r="D413" s="4" t="n">
+        <v>15860098</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B414" s="4" t="n">
+        <v>1834322</v>
+      </c>
+      <c r="C414" s="4" t="n">
+        <v>459260</v>
+      </c>
+      <c r="D414" s="4" t="n">
+        <v>2081052</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D422" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B423" s="4" t="n">
-        <v>15815195</v>
-      </c>
-      <c r="C423" s="4" t="n">
-        <v>15843303</v>
-      </c>
-      <c r="D423" s="4" t="n">
-        <v>15730278</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B424" s="4" t="n">
-        <v>15833209</v>
-      </c>
-      <c r="C424" s="4" t="n">
-        <v>15739485</v>
-      </c>
-      <c r="D424" s="4" t="n">
-        <v>15730682</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B425" s="4" t="n">
-        <v>15855323</v>
-      </c>
-      <c r="C425" s="4" t="n">
-        <v>15880016</v>
-      </c>
-      <c r="D425" s="4" t="n">
-        <v>15772390</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="B426" s="4" t="n">
-        <v>15815164</v>
-      </c>
-      <c r="C426" s="4" t="n">
-        <v>15906418</v>
-      </c>
-      <c r="D426" s="4" t="n">
-        <v>15776215</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="4" t="n">
-        <v>960</v>
-      </c>
-      <c r="B427" s="4" t="n">
-        <v>15873735</v>
-      </c>
-      <c r="C427" s="4" t="n">
-        <v>15973308</v>
-      </c>
-      <c r="D427" s="4" t="n">
-        <v>15892454</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B428" s="4" t="n">
-        <v>15845531</v>
-      </c>
-      <c r="C428" s="4" t="n">
-        <v>15772257</v>
-      </c>
-      <c r="D428" s="4" t="n">
-        <v>15901946</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B429" s="4" t="n">
-        <v>15840830</v>
-      </c>
-      <c r="C429" s="4" t="n">
-        <v>16029924</v>
-      </c>
-      <c r="D429" s="4" t="n">
-        <v>15909081</v>
+      <c r="C429" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="B430" s="4" t="n">
-        <v>15831120</v>
+        <v>15815195</v>
       </c>
       <c r="C430" s="4" t="n">
-        <v>16050242</v>
+        <v>15843303</v>
       </c>
       <c r="D430" s="4" t="n">
-        <v>15885674</v>
+        <v>15730278</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="B431" s="4" t="n">
-        <v>16111410</v>
+        <v>15833209</v>
       </c>
       <c r="C431" s="4" t="n">
-        <v>12315871</v>
+        <v>15739485</v>
       </c>
       <c r="D431" s="4" t="n">
-        <v>16003775</v>
+        <v>15730682</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B432" s="4" t="n">
+        <v>15855323</v>
+      </c>
+      <c r="C432" s="4" t="n">
+        <v>15880016</v>
+      </c>
+      <c r="D432" s="4" t="n">
+        <v>15772390</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="B433" s="4" t="n">
+        <v>15815164</v>
+      </c>
+      <c r="C433" s="4" t="n">
+        <v>15906418</v>
+      </c>
+      <c r="D433" s="4" t="n">
+        <v>15776215</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B434" s="4" t="n">
+        <v>15873735</v>
+      </c>
+      <c r="C434" s="4" t="n">
+        <v>15973308</v>
+      </c>
+      <c r="D434" s="4" t="n">
+        <v>15892454</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B435" s="4" t="n">
+        <v>15845531</v>
+      </c>
+      <c r="C435" s="4" t="n">
+        <v>15772257</v>
+      </c>
+      <c r="D435" s="4" t="n">
+        <v>15901946</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B436" s="4" t="n">
+        <v>15840830</v>
+      </c>
+      <c r="C436" s="4" t="n">
+        <v>16029924</v>
+      </c>
+      <c r="D436" s="4" t="n">
+        <v>15909081</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B437" s="4" t="n">
+        <v>15831120</v>
+      </c>
+      <c r="C437" s="4" t="n">
+        <v>16050242</v>
+      </c>
+      <c r="D437" s="4" t="n">
+        <v>15885674</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B438" s="4" t="n">
+        <v>16111410</v>
+      </c>
+      <c r="C438" s="4" t="n">
+        <v>12315871</v>
+      </c>
+      <c r="D438" s="4" t="n">
+        <v>16003775</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B432" s="4" t="n">
+      <c r="B439" s="4" t="n">
         <v>1814823</v>
       </c>
-      <c r="C432" s="4" t="n">
+      <c r="C439" s="4" t="n">
         <v>453745</v>
       </c>
-      <c r="D432" s="4" t="n">
+      <c r="D439" s="4" t="n">
         <v>2072374</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="4" t="s">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B452" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D447" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B448" s="4" t="n">
-        <v>8523685</v>
-      </c>
-      <c r="C448" s="4" t="n">
-        <v>8620809</v>
-      </c>
-      <c r="D448" s="4" t="n">
-        <v>8427848</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B449" s="4" t="n">
-        <v>8299342</v>
-      </c>
-      <c r="C449" s="4" t="n">
-        <v>8510979</v>
-      </c>
-      <c r="D449" s="4" t="n">
-        <v>8307281</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B450" s="4" t="n">
-        <v>8462811</v>
-      </c>
-      <c r="C450" s="4" t="n">
-        <v>7379101</v>
-      </c>
-      <c r="D450" s="4" t="n">
-        <v>8535448</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="B451" s="4" t="n">
-        <v>8430318</v>
-      </c>
-      <c r="C451" s="4" t="n">
-        <v>8165479</v>
-      </c>
-      <c r="D451" s="4" t="n">
-        <v>8574062</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="4" t="n">
-        <v>960</v>
-      </c>
-      <c r="B452" s="4" t="n">
-        <v>8306032</v>
-      </c>
-      <c r="C452" s="4" t="n">
-        <v>4239702</v>
-      </c>
-      <c r="D452" s="4" t="n">
-        <v>8520762</v>
+      <c r="C452" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B453" s="4" t="n">
-        <v>8445980</v>
+        <v>8523685</v>
       </c>
       <c r="C453" s="4" t="n">
-        <v>7886717</v>
+        <v>8620809</v>
       </c>
       <c r="D453" s="4" t="n">
-        <v>8825226</v>
+        <v>8427848</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="B454" s="4" t="n">
-        <v>7285115</v>
+        <v>8299342</v>
       </c>
       <c r="C454" s="4" t="n">
-        <v>5011908</v>
+        <v>8510979</v>
       </c>
       <c r="D454" s="4" t="n">
-        <v>8175625</v>
+        <v>8307281</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="B455" s="4" t="n">
-        <v>8520147</v>
+        <v>8462811</v>
       </c>
       <c r="C455" s="4" t="n">
-        <v>3063936</v>
+        <v>7379101</v>
       </c>
       <c r="D455" s="4" t="n">
-        <v>8509028</v>
+        <v>8535448</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="B456" s="4" t="n">
-        <v>7607754</v>
+        <v>8430318</v>
       </c>
       <c r="C456" s="4" t="n">
-        <v>1726115</v>
+        <v>8165479</v>
       </c>
       <c r="D456" s="4" t="n">
-        <v>7493692</v>
+        <v>8574062</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B457" s="4" t="n">
+        <v>8306032</v>
+      </c>
+      <c r="C457" s="4" t="n">
+        <v>4239702</v>
+      </c>
+      <c r="D457" s="4" t="n">
+        <v>8520762</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B458" s="4" t="n">
+        <v>8445980</v>
+      </c>
+      <c r="C458" s="4" t="n">
+        <v>7886717</v>
+      </c>
+      <c r="D458" s="4" t="n">
+        <v>8825226</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B459" s="4" t="n">
+        <v>7285115</v>
+      </c>
+      <c r="C459" s="4" t="n">
+        <v>5011908</v>
+      </c>
+      <c r="D459" s="4" t="n">
+        <v>8175625</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B460" s="4" t="n">
+        <v>8520147</v>
+      </c>
+      <c r="C460" s="4" t="n">
+        <v>3063936</v>
+      </c>
+      <c r="D460" s="4" t="n">
+        <v>8509028</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B461" s="4" t="n">
+        <v>7607754</v>
+      </c>
+      <c r="C461" s="4" t="n">
+        <v>1726115</v>
+      </c>
+      <c r="D461" s="4" t="n">
+        <v>7493692</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B457" s="4" t="n">
+      <c r="B462" s="4" t="n">
         <v>423328</v>
       </c>
-      <c r="C457" s="4" t="n">
+      <c r="C462" s="4" t="n">
         <v>72093</v>
       </c>
-      <c r="D457" s="4" t="n">
+      <c r="D462" s="4" t="n">
         <v>422546</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="4" t="s">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="B479" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D474" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B475" s="4" t="n">
-        <v>8114059</v>
-      </c>
-      <c r="C475" s="4" t="n">
-        <v>8534211</v>
-      </c>
-      <c r="D475" s="4" t="n">
-        <v>8021504</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B476" s="4" t="n">
-        <v>8121738</v>
-      </c>
-      <c r="C476" s="4" t="n">
-        <v>8183894</v>
-      </c>
-      <c r="D476" s="4" t="n">
-        <v>8106148</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B477" s="4" t="n">
-        <v>8035073</v>
-      </c>
-      <c r="C477" s="4" t="n">
-        <v>6111578</v>
-      </c>
-      <c r="D477" s="4" t="n">
-        <v>7826747</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="B478" s="4" t="n">
-        <v>7900302</v>
-      </c>
-      <c r="C478" s="4" t="n">
-        <v>7901494</v>
-      </c>
-      <c r="D478" s="4" t="n">
-        <v>8121770</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="4" t="n">
-        <v>960</v>
-      </c>
-      <c r="B479" s="4" t="n">
-        <v>7707654</v>
-      </c>
-      <c r="C479" s="4" t="n">
-        <v>3757342</v>
-      </c>
-      <c r="D479" s="4" t="n">
-        <v>7935736</v>
+      <c r="C479" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B480" s="4" t="n">
-        <v>7826326</v>
+        <v>8114059</v>
       </c>
       <c r="C480" s="4" t="n">
-        <v>6281435</v>
+        <v>8534211</v>
       </c>
       <c r="D480" s="4" t="n">
-        <v>8207448</v>
+        <v>8021504</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="B481" s="4" t="n">
-        <v>8142589</v>
+        <v>8121738</v>
       </c>
       <c r="C481" s="4" t="n">
-        <v>4426071</v>
+        <v>8183894</v>
       </c>
       <c r="D481" s="4" t="n">
-        <v>8314513</v>
+        <v>8106148</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="B482" s="4" t="n">
-        <v>7965813</v>
+        <v>8035073</v>
       </c>
       <c r="C482" s="4" t="n">
-        <v>2813009</v>
+        <v>6111578</v>
       </c>
       <c r="D482" s="4" t="n">
-        <v>8428373</v>
+        <v>7826747</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="B483" s="4" t="n">
-        <v>6145528</v>
+        <v>7900302</v>
       </c>
       <c r="C483" s="4" t="n">
-        <v>1638024</v>
+        <v>7901494</v>
       </c>
       <c r="D483" s="4" t="n">
-        <v>6264230</v>
+        <v>8121770</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="n">
+        <v>960</v>
+      </c>
+      <c r="B484" s="4" t="n">
+        <v>7707654</v>
+      </c>
+      <c r="C484" s="4" t="n">
+        <v>3757342</v>
+      </c>
+      <c r="D484" s="4" t="n">
+        <v>7935736</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B485" s="4" t="n">
+        <v>7826326</v>
+      </c>
+      <c r="C485" s="4" t="n">
+        <v>6281435</v>
+      </c>
+      <c r="D485" s="4" t="n">
+        <v>8207448</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B486" s="4" t="n">
+        <v>8142589</v>
+      </c>
+      <c r="C486" s="4" t="n">
+        <v>4426071</v>
+      </c>
+      <c r="D486" s="4" t="n">
+        <v>8314513</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B487" s="4" t="n">
+        <v>7965813</v>
+      </c>
+      <c r="C487" s="4" t="n">
+        <v>2813009</v>
+      </c>
+      <c r="D487" s="4" t="n">
+        <v>8428373</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B488" s="4" t="n">
+        <v>6145528</v>
+      </c>
+      <c r="C488" s="4" t="n">
+        <v>1638024</v>
+      </c>
+      <c r="D488" s="4" t="n">
+        <v>6264230</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B484" s="4" t="n">
+      <c r="B489" s="4" t="n">
         <v>417405</v>
       </c>
-      <c r="C484" s="4" t="n">
+      <c r="C489" s="4" t="n">
         <v>71895</v>
       </c>
-      <c r="D484" s="4" t="n">
+      <c r="D489" s="4" t="n">
         <v>418323</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="1" t="s">
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B501" s="1"/>
-      <c r="C501" s="1"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="1"/>
-    </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="1" t="s">
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1"/>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B502" s="1"/>
-      <c r="C502" s="1"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="1"/>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="4" t="s">
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="B510" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B511" s="4" t="n">
+        <v>13944417</v>
+      </c>
+      <c r="C511" s="4" t="n">
+        <v>13779453</v>
+      </c>
+      <c r="D511" s="4" t="n">
+        <v>13928726</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B512" s="4" t="n">
+        <v>15629456</v>
+      </c>
+      <c r="C512" s="4" t="n">
+        <v>15692059</v>
+      </c>
+      <c r="D512" s="4" t="n">
+        <v>15685792</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B513" s="4" t="n">
+        <v>15770825</v>
+      </c>
+      <c r="C513" s="4" t="n">
+        <v>15799296</v>
+      </c>
+      <c r="D513" s="4" t="n">
+        <v>15950752</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B535" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C526" s="4" t="s">
+      <c r="C535" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B536" s="4" t="n">
+        <v>14249680</v>
+      </c>
+      <c r="C536" s="4" t="n">
+        <v>13276732</v>
+      </c>
+      <c r="D536" s="4" t="n">
+        <v>13471252</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B537" s="4" t="n">
+        <v>15735220</v>
+      </c>
+      <c r="C537" s="4" t="n">
+        <v>15666936</v>
+      </c>
+      <c r="D537" s="4" t="n">
+        <v>15669721</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B538" s="4" t="n">
+        <v>15815164</v>
+      </c>
+      <c r="C538" s="4" t="n">
+        <v>15906418</v>
+      </c>
+      <c r="D538" s="4" t="n">
+        <v>15776215</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C559" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D526" s="4" t="s">
+      <c r="D559" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="4" t="n">
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="B527" s="4" t="n">
-        <v>14249680</v>
-      </c>
-      <c r="C527" s="4" t="n">
-        <v>13276732</v>
-      </c>
-      <c r="D527" s="4" t="n">
-        <v>13471252</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="4" t="n">
+      <c r="B560" s="4" t="n">
+        <v>4721917</v>
+      </c>
+      <c r="C560" s="4" t="n">
+        <v>4574673</v>
+      </c>
+      <c r="D560" s="4" t="n">
+        <v>5341444</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="B528" s="4" t="n">
-        <v>15735220</v>
-      </c>
-      <c r="C528" s="4" t="n">
-        <v>15666936</v>
-      </c>
-      <c r="D528" s="4" t="n">
-        <v>15669721</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="4" t="n">
+      <c r="B561" s="4" t="n">
+        <v>7799193</v>
+      </c>
+      <c r="C561" s="4" t="n">
+        <v>7911064</v>
+      </c>
+      <c r="D561" s="4" t="n">
+        <v>8310345</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="B529" s="4" t="n">
+      <c r="B562" s="4" t="n">
+        <v>8430318</v>
+      </c>
+      <c r="C562" s="4" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D562" s="4" t="n">
+        <v>8574062</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B587" s="4" t="n">
+        <v>2046796</v>
+      </c>
+      <c r="C587" s="4" t="n">
+        <v>1841459</v>
+      </c>
+      <c r="D587" s="4" t="n">
+        <v>2111046</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B588" s="4" t="n">
+        <v>6974741</v>
+      </c>
+      <c r="C588" s="4" t="n">
+        <v>7012310</v>
+      </c>
+      <c r="D588" s="4" t="n">
+        <v>7482042</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B589" s="4" t="n">
+        <v>7900302</v>
+      </c>
+      <c r="C589" s="4" t="n">
+        <v>7901494</v>
+      </c>
+      <c r="D589" s="4" t="n">
+        <v>8121770</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+      <c r="D610" s="1"/>
+      <c r="E610" s="1"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+      <c r="D611" s="1"/>
+      <c r="E611" s="1"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B616" s="4" t="n">
+        <v>15794892</v>
+      </c>
+      <c r="C616" s="4" t="n">
+        <v>15905959</v>
+      </c>
+      <c r="D616" s="4" t="n">
+        <v>15952164</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B617" s="4" t="n">
+        <v>31607677</v>
+      </c>
+      <c r="C617" s="4" t="n">
+        <v>31568120</v>
+      </c>
+      <c r="D617" s="4" t="n">
+        <v>31550530</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B618" s="4" t="n">
+        <v>64059152</v>
+      </c>
+      <c r="C618" s="4" t="n">
+        <v>63977237</v>
+      </c>
+      <c r="D618" s="4" t="n">
+        <v>64164930</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B619" s="4" t="n">
+        <v>95841456</v>
+      </c>
+      <c r="C619" s="4" t="n">
+        <v>95782536</v>
+      </c>
+      <c r="D619" s="4" t="n">
+        <v>96077155</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B620" s="4" t="n">
+        <v>127697402</v>
+      </c>
+      <c r="C620" s="4" t="n">
+        <v>126418688</v>
+      </c>
+      <c r="D620" s="4" t="n">
+        <v>127834540</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B621" s="4" t="n">
+        <v>147630180</v>
+      </c>
+      <c r="C621" s="4" t="n">
+        <v>126210740</v>
+      </c>
+      <c r="D621" s="4" t="n">
+        <v>147065085</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B622" s="4" t="n">
+        <v>147664162</v>
+      </c>
+      <c r="C622" s="4" t="n">
+        <v>126100248</v>
+      </c>
+      <c r="D622" s="4" t="n">
+        <v>147558662</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B623" s="4" t="n">
+        <v>147729927</v>
+      </c>
+      <c r="C623" s="4" t="n">
+        <v>126744909</v>
+      </c>
+      <c r="D623" s="4" t="n">
+        <v>147725699</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B645" s="4" t="n">
         <v>15815164</v>
       </c>
-      <c r="C529" s="4" t="n">
+      <c r="C645" s="4" t="n">
         <v>15906418</v>
       </c>
-      <c r="D529" s="4" t="n">
+      <c r="D645" s="4" t="n">
         <v>15776215</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B554" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B555" s="4" t="n">
-        <v>4721917</v>
-      </c>
-      <c r="C555" s="4" t="n">
-        <v>4574673</v>
-      </c>
-      <c r="D555" s="4" t="n">
-        <v>5341444</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B556" s="4" t="n">
-        <v>7799193</v>
-      </c>
-      <c r="C556" s="4" t="n">
-        <v>7911064</v>
-      </c>
-      <c r="D556" s="4" t="n">
-        <v>8310345</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B557" s="4" t="n">
-        <v>8430318</v>
-      </c>
-      <c r="C557" s="4" t="n">
-        <v>8165479</v>
-      </c>
-      <c r="D557" s="4" t="n">
-        <v>8574062</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B581" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C581" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D581" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B582" s="4" t="n">
-        <v>2046796</v>
-      </c>
-      <c r="C582" s="4" t="n">
-        <v>1841459</v>
-      </c>
-      <c r="D582" s="4" t="n">
-        <v>2111046</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B583" s="4" t="n">
-        <v>6974741</v>
-      </c>
-      <c r="C583" s="4" t="n">
-        <v>7012310</v>
-      </c>
-      <c r="D583" s="4" t="n">
-        <v>7482042</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B584" s="4" t="n">
-        <v>7900302</v>
-      </c>
-      <c r="C584" s="4" t="n">
-        <v>7901494</v>
-      </c>
-      <c r="D584" s="4" t="n">
-        <v>8121770</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B605" s="1"/>
-      <c r="C605" s="1"/>
-      <c r="D605" s="1"/>
-      <c r="E605" s="1"/>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B606" s="1"/>
-      <c r="C606" s="1"/>
-      <c r="D606" s="1"/>
-      <c r="E606" s="1"/>
-    </row>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B623" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C623" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D623" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B624" s="4" t="n">
-        <v>15815164</v>
-      </c>
-      <c r="C624" s="4" t="n">
-        <v>15906418</v>
-      </c>
-      <c r="D624" s="4" t="n">
-        <v>15776215</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="4" t="n">
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B625" s="4" t="n">
+      <c r="B646" s="4" t="n">
         <v>32070393</v>
       </c>
-      <c r="C625" s="4" t="n">
+      <c r="C646" s="4" t="n">
         <v>32083159</v>
       </c>
-      <c r="D625" s="4" t="n">
+      <c r="D646" s="4" t="n">
         <v>31558376</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="4" t="n">
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B626" s="4" t="n">
+      <c r="B647" s="4" t="n">
         <v>64545146</v>
       </c>
-      <c r="C626" s="4" t="n">
+      <c r="C647" s="4" t="n">
         <v>64395886</v>
       </c>
-      <c r="D626" s="4" t="n">
+      <c r="D647" s="4" t="n">
         <v>63903539</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="4" t="n">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B627" s="4" t="n">
+      <c r="B648" s="4" t="n">
         <v>96739731</v>
       </c>
-      <c r="C627" s="4" t="n">
+      <c r="C648" s="4" t="n">
         <v>75245147</v>
       </c>
-      <c r="D627" s="4" t="n">
+      <c r="D648" s="4" t="n">
         <v>95881741</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="4" t="n">
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B628" s="4" t="n">
+      <c r="B649" s="4" t="n">
         <v>99238098</v>
       </c>
-      <c r="C628" s="4" t="n">
+      <c r="C649" s="4" t="n">
         <v>74143134</v>
       </c>
-      <c r="D628" s="4" t="n">
+      <c r="D649" s="4" t="n">
         <v>100732251</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="4" t="n">
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B629" s="4" t="n">
+      <c r="B650" s="4" t="n">
         <v>98434105</v>
       </c>
-      <c r="C629" s="4" t="n">
+      <c r="C650" s="4" t="n">
         <v>74123596</v>
       </c>
-      <c r="D629" s="4" t="n">
+      <c r="D650" s="4" t="n">
         <v>100584544</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B630" s="4" t="n">
-        <v>98680734</v>
-      </c>
-      <c r="C630" s="4" t="n">
-        <v>74702844</v>
-      </c>
-      <c r="D630" s="4" t="n">
-        <v>100498977</v>
-      </c>
-    </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B631" s="4" t="n">
-        <v>96554241</v>
-      </c>
-      <c r="C631" s="4" t="n">
-        <v>73956939</v>
-      </c>
-      <c r="D631" s="4" t="n">
-        <v>99561198</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B650" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C650" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D650" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B651" s="4" t="n">
-        <v>8430318</v>
+        <v>98680734</v>
       </c>
       <c r="C651" s="4" t="n">
-        <v>8165479</v>
+        <v>74702844</v>
       </c>
       <c r="D651" s="4" t="n">
-        <v>8574062</v>
+        <v>100498977</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B652" s="4" t="n">
+        <v>96554241</v>
+      </c>
+      <c r="C652" s="4" t="n">
+        <v>73956939</v>
+      </c>
+      <c r="D652" s="4" t="n">
+        <v>99561198</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C671" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B672" s="4" t="n">
+        <v>8430318</v>
+      </c>
+      <c r="C672" s="4" t="n">
+        <v>8165479</v>
+      </c>
+      <c r="D672" s="4" t="n">
+        <v>8574062</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B652" s="4" t="n">
+      <c r="B673" s="4" t="n">
         <v>15315367</v>
       </c>
-      <c r="C652" s="4" t="n">
+      <c r="C673" s="4" t="n">
         <v>11087785</v>
       </c>
-      <c r="D652" s="4" t="n">
+      <c r="D673" s="4" t="n">
         <v>15257164</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="4" t="s">
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B677" s="4" t="s">
+      <c r="B698" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C677" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D677" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="4" t="n">
+      <c r="C698" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B678" s="4" t="n">
+      <c r="B699" s="4" t="n">
         <v>7900302</v>
       </c>
-      <c r="C678" s="4" t="n">
+      <c r="C699" s="4" t="n">
         <v>7901494</v>
       </c>
-      <c r="D678" s="4" t="n">
+      <c r="D699" s="4" t="n">
         <v>8121770</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="4" t="n">
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B679" s="4" t="n">
+      <c r="B700" s="4" t="n">
         <v>12166886</v>
       </c>
-      <c r="C679" s="4" t="n">
+      <c r="C700" s="4" t="n">
         <v>7875166</v>
       </c>
-      <c r="D679" s="4" t="n">
+      <c r="D700" s="4" t="n">
         <v>11684490</v>
       </c>
     </row>
@@ -18233,10 +20444,10 @@
     <mergeCell ref="A336:E336"/>
     <mergeCell ref="A400:E400"/>
     <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A501:E501"/>
-    <mergeCell ref="A502:E502"/>
-    <mergeCell ref="A605:E605"/>
-    <mergeCell ref="A606:E606"/>
+    <mergeCell ref="A506:E506"/>
+    <mergeCell ref="A507:E507"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A611:E611"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
